--- a/python/Statistics/Results/RST_classification_NCEP_1979-2016.xlsx
+++ b/python/Statistics/Results/RST_classification_NCEP_1979-2016.xlsx
@@ -438,7 +438,7 @@
         <v>1</v>
       </c>
       <c r="X2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y2" t="s">
         <v>0</v>
@@ -521,7 +521,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N3" t="s">
         <v>0</v>
@@ -530,7 +530,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q3" t="s">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>2</v>
       </c>
       <c r="X3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y3" t="s">
         <v>0</v>
@@ -616,7 +616,7 @@
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G4" t="s">
         <v>1</v>
@@ -661,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V4" t="s">
         <v>2</v>
@@ -685,7 +685,7 @@
         <v>0</v>
       </c>
       <c r="AC4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AD4" t="s">
         <v>3</v>
@@ -709,7 +709,7 @@
         <v>1</v>
       </c>
       <c r="AK4" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AL4" t="s">
         <v>0</v>
@@ -878,7 +878,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6" t="s">
         <v>0</v>
@@ -970,7 +970,7 @@
         <v>2</v>
       </c>
       <c r="H7" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" t="s">
         <v>0</v>
@@ -979,7 +979,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7" t="s">
         <v>0</v>
@@ -1033,7 +1033,7 @@
         <v>0</v>
       </c>
       <c r="AC7" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD7" t="s">
         <v>0</v>
@@ -1235,13 +1235,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T9" t="s">
         <v>0</v>
       </c>
       <c r="U9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V9" t="s">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="s">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" t="s">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V10" t="s">
         <v>0</v>
@@ -1461,7 +1461,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R11" t="s">
         <v>0</v>
@@ -1485,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Z11" t="s">
         <v>1</v>
@@ -1500,7 +1500,7 @@
         <v>0</v>
       </c>
       <c r="AD11" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE11" t="s">
         <v>1</v>
@@ -1595,7 +1595,7 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X12" t="s">
         <v>1</v>
@@ -1625,7 +1625,7 @@
         <v>0</v>
       </c>
       <c r="AG12" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH12" t="s">
         <v>0</v>
@@ -1640,7 +1640,7 @@
         <v>1</v>
       </c>
       <c r="AL12" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM12" t="s">
         <v>1</v>
@@ -1714,7 +1714,7 @@
         <v>1</v>
       </c>
       <c r="X13" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y13" t="s">
         <v>1</v>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14" t="s">
         <v>0</v>
@@ -1925,7 +1925,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R15" t="s">
         <v>1</v>
@@ -1934,7 +1934,7 @@
         <v>1</v>
       </c>
       <c r="T15" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U15" t="s">
         <v>0</v>
@@ -1961,7 +1961,7 @@
         <v>0</v>
       </c>
       <c r="AC15" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AD15" t="s">
         <v>1</v>
@@ -2011,7 +2011,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" t="s">
         <v>0</v>
@@ -2032,7 +2032,7 @@
         <v>0</v>
       </c>
       <c r="N16" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O16" t="s">
         <v>0</v>
@@ -2136,7 +2136,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K17" t="s">
         <v>0</v>
@@ -2154,7 +2154,7 @@
         <v>0</v>
       </c>
       <c r="P17" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q17" t="s">
         <v>0</v>
@@ -2172,7 +2172,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W17" t="s">
         <v>1</v>
@@ -2199,7 +2199,7 @@
         <v>1</v>
       </c>
       <c r="AE17" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF17" t="s">
         <v>2</v>
@@ -2315,13 +2315,13 @@
         <v>1</v>
       </c>
       <c r="AE18" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AF18" t="s">
         <v>0</v>
       </c>
       <c r="AG18" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH18" t="s">
         <v>1</v>
@@ -2535,7 +2535,7 @@
         <v>0</v>
       </c>
       <c r="AA20" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB20" t="s">
         <v>0</v>
@@ -2788,7 +2788,7 @@
         <v>0</v>
       </c>
       <c r="AH22" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI22" t="s">
         <v>0</v>
@@ -2811,7 +2811,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" t="s">
         <v>0</v>
@@ -2895,7 +2895,7 @@
         <v>0</v>
       </c>
       <c r="AE23" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AF23" t="s">
         <v>0</v>
@@ -2978,7 +2978,7 @@
         <v>0</v>
       </c>
       <c r="T24" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U24" t="s">
         <v>0</v>
@@ -3264,7 +3264,7 @@
         <v>0</v>
       </c>
       <c r="AL26" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM26" t="s">
         <v>0</v>
@@ -3341,7 +3341,7 @@
         <v>0</v>
       </c>
       <c r="Y27" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z27" t="s">
         <v>0</v>
@@ -3359,7 +3359,7 @@
         <v>1</v>
       </c>
       <c r="AE27" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AF27" t="s">
         <v>0</v>
@@ -3397,7 +3397,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F28" t="s">
         <v>1</v>
@@ -3552,7 +3552,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S29" t="s">
         <v>0</v>
@@ -3695,7 +3695,7 @@
         <v>0</v>
       </c>
       <c r="AA30" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB30" t="s">
         <v>0</v>
@@ -3873,7 +3873,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32" t="s">
         <v>2</v>
@@ -3909,13 +3909,13 @@
         <v>0</v>
       </c>
       <c r="U32" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V32" t="s">
         <v>1</v>
       </c>
       <c r="W32" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X32" t="s">
         <v>0</v>
@@ -3936,7 +3936,7 @@
         <v>1</v>
       </c>
       <c r="AD32" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AE32" t="s">
         <v>0</v>
@@ -3998,7 +3998,7 @@
         <v>0</v>
       </c>
       <c r="L33" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M33" t="s">
         <v>1</v>
@@ -4123,7 +4123,7 @@
         <v>0</v>
       </c>
       <c r="O34" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P34" t="s">
         <v>0</v>
@@ -4144,7 +4144,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W34" t="s">
         <v>0</v>
@@ -4209,7 +4209,7 @@
         <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35" t="s">
         <v>0</v>
@@ -4296,10 +4296,10 @@
         <v>0</v>
       </c>
       <c r="AH35" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AI35" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ35" t="s">
         <v>0</v>
@@ -4343,7 +4343,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L36" t="s">
         <v>1</v>
@@ -4391,7 +4391,7 @@
         <v>0</v>
       </c>
       <c r="AA36" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB36" t="s">
         <v>0</v>
@@ -4406,7 +4406,7 @@
         <v>2</v>
       </c>
       <c r="AF36" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AG36" t="s">
         <v>0</v>
@@ -4447,7 +4447,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H37" t="s">
         <v>0</v>
@@ -4507,13 +4507,13 @@
         <v>0</v>
       </c>
       <c r="AA37" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AB37" t="s">
         <v>0</v>
       </c>
       <c r="AC37" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD37" t="s">
         <v>0</v>
@@ -5007,7 +5007,7 @@
         <v>0</v>
       </c>
       <c r="AM41" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:39">
@@ -5018,7 +5018,7 @@
         <v>1</v>
       </c>
       <c r="D42" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E42" t="s">
         <v>1</v>
@@ -5054,7 +5054,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q42" t="s">
         <v>0</v>
@@ -5066,10 +5066,10 @@
         <v>0</v>
       </c>
       <c r="T42" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U42" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V42" t="s">
         <v>1</v>
@@ -5286,7 +5286,7 @@
         <v>0</v>
       </c>
       <c r="P44" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q44" t="s">
         <v>0</v>
@@ -5343,7 +5343,7 @@
         <v>0</v>
       </c>
       <c r="AI44" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ44" t="s">
         <v>0</v>
@@ -5402,7 +5402,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q45" t="s">
         <v>0</v>
@@ -5670,7 +5670,7 @@
         <v>0</v>
       </c>
       <c r="AB47" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC47" t="s">
         <v>0</v>
@@ -5765,7 +5765,7 @@
         <v>1</v>
       </c>
       <c r="U48" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V48" t="s">
         <v>0</v>
@@ -5819,7 +5819,7 @@
         <v>0</v>
       </c>
       <c r="AM48" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:39">
@@ -5845,7 +5845,7 @@
         <v>0</v>
       </c>
       <c r="I49" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J49" t="s">
         <v>0</v>
@@ -6098,7 +6098,7 @@
         <v>0</v>
       </c>
       <c r="P51" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q51" t="s">
         <v>2</v>
@@ -6113,7 +6113,7 @@
         <v>0</v>
       </c>
       <c r="U51" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V51" t="s">
         <v>0</v>
@@ -6291,7 +6291,7 @@
         <v>0</v>
       </c>
       <c r="C53" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D53" t="s">
         <v>0</v>
@@ -6387,7 +6387,7 @@
         <v>0</v>
       </c>
       <c r="AI53" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ53" t="s">
         <v>0</v>
@@ -6541,7 +6541,7 @@
         <v>1</v>
       </c>
       <c r="I55" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55" t="s">
         <v>0</v>
@@ -6553,7 +6553,7 @@
         <v>0</v>
       </c>
       <c r="M55" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N55" t="s">
         <v>1</v>
@@ -6583,7 +6583,7 @@
         <v>1</v>
       </c>
       <c r="W55" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X55" t="s">
         <v>0</v>
@@ -6601,13 +6601,13 @@
         <v>1</v>
       </c>
       <c r="AC55" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD55" t="s">
         <v>2</v>
       </c>
       <c r="AE55" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF55" t="s">
         <v>0</v>
@@ -6639,7 +6639,7 @@
         <v>0</v>
       </c>
       <c r="C56" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D56" t="s">
         <v>0</v>
@@ -6672,7 +6672,7 @@
         <v>0</v>
       </c>
       <c r="N56" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O56" t="s">
         <v>0</v>
@@ -6863,7 +6863,7 @@
         <v>0</v>
       </c>
       <c r="AM57" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:39">
@@ -6928,7 +6928,7 @@
         <v>0</v>
       </c>
       <c r="V58" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W58" t="s">
         <v>1</v>
@@ -6987,7 +6987,7 @@
         <v>0</v>
       </c>
       <c r="C59" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D59" t="s">
         <v>1</v>
@@ -7005,7 +7005,7 @@
         <v>1</v>
       </c>
       <c r="I59" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J59" t="s">
         <v>0</v>
@@ -7044,7 +7044,7 @@
         <v>1</v>
       </c>
       <c r="V59" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W59" t="s">
         <v>0</v>
@@ -7160,7 +7160,7 @@
         <v>0</v>
       </c>
       <c r="V60" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W60" t="s">
         <v>3</v>
@@ -7181,13 +7181,13 @@
         <v>0</v>
       </c>
       <c r="AC60" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD60" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE60" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF60" t="s">
         <v>0</v>
@@ -7323,7 +7323,7 @@
         <v>0</v>
       </c>
       <c r="AA62" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB62" t="s">
         <v>0</v>
@@ -7510,7 +7510,7 @@
         <v>0</v>
       </c>
       <c r="L64" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M64" t="s">
         <v>0</v>
@@ -7632,7 +7632,7 @@
         <v>0</v>
       </c>
       <c r="N65" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O65" t="s">
         <v>0</v>
@@ -7718,7 +7718,7 @@
         <v>0</v>
       </c>
       <c r="D66" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E66" t="s">
         <v>1</v>
@@ -8004,7 +8004,7 @@
         <v>0</v>
       </c>
       <c r="V68" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W68" t="s">
         <v>0</v>
@@ -8043,7 +8043,7 @@
         <v>0</v>
       </c>
       <c r="AI68" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ68" t="s">
         <v>0</v>
@@ -8126,7 +8126,7 @@
         <v>0</v>
       </c>
       <c r="X69" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y69" t="s">
         <v>0</v>
@@ -8165,7 +8165,7 @@
         <v>2</v>
       </c>
       <c r="AK69" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL69" t="s">
         <v>1</v>
@@ -8263,7 +8263,7 @@
         <v>0</v>
       </c>
       <c r="AE70" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF70" t="s">
         <v>0</v>
@@ -8284,7 +8284,7 @@
         <v>1</v>
       </c>
       <c r="AL70" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM70" t="s">
         <v>2</v>
@@ -8298,7 +8298,7 @@
         <v>0</v>
       </c>
       <c r="D71" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E71" t="s">
         <v>0</v>
@@ -8462,7 +8462,7 @@
         <v>0</v>
       </c>
       <c r="T72" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U72" t="s">
         <v>0</v>
@@ -8733,7 +8733,7 @@
         <v>0</v>
       </c>
       <c r="AG74" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH74" t="s">
         <v>0</v>
@@ -8864,7 +8864,7 @@
         <v>0</v>
       </c>
       <c r="AL75" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM75" t="s">
         <v>0</v>
@@ -9024,10 +9024,10 @@
         <v>1</v>
       </c>
       <c r="N77" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O77" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P77" t="s">
         <v>1</v>
@@ -9051,13 +9051,13 @@
         <v>1</v>
       </c>
       <c r="W77" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X77" t="s">
         <v>0</v>
       </c>
       <c r="Y77" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z77" t="s">
         <v>0</v>
@@ -9137,7 +9137,7 @@
         <v>0</v>
       </c>
       <c r="M78" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N78" t="s">
         <v>2</v>
@@ -9146,7 +9146,7 @@
         <v>0</v>
       </c>
       <c r="P78" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q78" t="s">
         <v>1</v>
@@ -9455,7 +9455,7 @@
         <v>0</v>
       </c>
       <c r="C81" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D81" t="s">
         <v>0</v>
@@ -9485,7 +9485,7 @@
         <v>0</v>
       </c>
       <c r="M81" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N81" t="s">
         <v>1</v>
@@ -9601,7 +9601,7 @@
         <v>0</v>
       </c>
       <c r="M82" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N82" t="s">
         <v>0</v>
@@ -9616,7 +9616,7 @@
         <v>0</v>
       </c>
       <c r="R82" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S82" t="s">
         <v>0</v>
@@ -9661,13 +9661,13 @@
         <v>0</v>
       </c>
       <c r="AG82" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH82" t="s">
         <v>0</v>
       </c>
       <c r="AI82" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ82" t="s">
         <v>0</v>
@@ -9777,7 +9777,7 @@
         <v>0</v>
       </c>
       <c r="AG83" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH83" t="s">
         <v>0</v>
@@ -9890,10 +9890,10 @@
         <v>0</v>
       </c>
       <c r="AF84" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AG84" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH84" t="s">
         <v>0</v>
@@ -9919,7 +9919,7 @@
         <v>0</v>
       </c>
       <c r="C85" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D85" t="s">
         <v>0</v>
@@ -10038,7 +10038,7 @@
         <v>0</v>
       </c>
       <c r="D86" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E86" t="s">
         <v>3</v>
@@ -10131,7 +10131,7 @@
         <v>0</v>
       </c>
       <c r="AI86" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ86" t="s">
         <v>1</v>
@@ -10282,10 +10282,10 @@
         <v>0</v>
       </c>
       <c r="H88" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I88" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J88" t="s">
         <v>0</v>
@@ -10339,7 +10339,7 @@
         <v>0</v>
       </c>
       <c r="AA88" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB88" t="s">
         <v>1</v>
@@ -10401,7 +10401,7 @@
         <v>0</v>
       </c>
       <c r="I89" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J89" t="s">
         <v>1</v>
@@ -10446,7 +10446,7 @@
         <v>1</v>
       </c>
       <c r="X89" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y89" t="s">
         <v>0</v>
@@ -10556,7 +10556,7 @@
         <v>0</v>
       </c>
       <c r="V90" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W90" t="s">
         <v>1</v>
@@ -10568,7 +10568,7 @@
         <v>0</v>
       </c>
       <c r="Z90" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA90" t="s">
         <v>1</v>
@@ -10734,7 +10734,7 @@
         <v>2</v>
       </c>
       <c r="D92" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E92" t="s">
         <v>1</v>
@@ -10865,10 +10865,10 @@
         <v>0</v>
       </c>
       <c r="I93" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J93" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K93" t="s">
         <v>1</v>
@@ -11076,7 +11076,7 @@
     </row>
     <row r="95" spans="1:39">
       <c r="B95" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C95" t="s">
         <v>0</v>
@@ -11151,7 +11151,7 @@
         <v>2</v>
       </c>
       <c r="AA95" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB95" t="s">
         <v>0</v>
@@ -11368,7 +11368,7 @@
         <v>0</v>
       </c>
       <c r="V97" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W97" t="s">
         <v>0</v>
@@ -11401,13 +11401,13 @@
         <v>0</v>
       </c>
       <c r="AG97" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AH97" t="s">
         <v>0</v>
       </c>
       <c r="AI97" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ97" t="s">
         <v>0</v>
@@ -11433,7 +11433,7 @@
         <v>0</v>
       </c>
       <c r="E98" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F98" t="s">
         <v>0</v>
@@ -11472,7 +11472,7 @@
         <v>0</v>
       </c>
       <c r="R98" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S98" t="s">
         <v>0</v>
@@ -11487,7 +11487,7 @@
         <v>0</v>
       </c>
       <c r="W98" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X98" t="s">
         <v>0</v>
@@ -11606,7 +11606,7 @@
         <v>0</v>
       </c>
       <c r="X99" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y99" t="s">
         <v>0</v>
@@ -11737,7 +11737,7 @@
         <v>1</v>
       </c>
       <c r="AC100" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD100" t="s">
         <v>0</v>
@@ -11781,7 +11781,7 @@
         <v>0</v>
       </c>
       <c r="E101" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F101" t="s">
         <v>0</v>
@@ -11945,7 +11945,7 @@
         <v>0</v>
       </c>
       <c r="U102" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V102" t="s">
         <v>0</v>
@@ -11975,7 +11975,7 @@
         <v>0</v>
       </c>
       <c r="AE102" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF102" t="s">
         <v>0</v>
@@ -12281,7 +12281,7 @@
         <v>0</v>
       </c>
       <c r="Q105" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R105" t="s">
         <v>2</v>
@@ -12397,7 +12397,7 @@
         <v>0</v>
       </c>
       <c r="Q106" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R106" t="s">
         <v>0</v>
@@ -12409,7 +12409,7 @@
         <v>0</v>
       </c>
       <c r="U106" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V106" t="s">
         <v>0</v>
@@ -12439,7 +12439,7 @@
         <v>0</v>
       </c>
       <c r="AE106" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AF106" t="s">
         <v>2</v>
@@ -12540,7 +12540,7 @@
         <v>2</v>
       </c>
       <c r="Z107" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AA107" t="s">
         <v>0</v>
@@ -12653,7 +12653,7 @@
         <v>0</v>
       </c>
       <c r="Y108" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z108" t="s">
         <v>0</v>
@@ -12689,7 +12689,7 @@
         <v>0</v>
       </c>
       <c r="AK108" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL108" t="s">
         <v>0</v>
@@ -12757,7 +12757,7 @@
         <v>0</v>
       </c>
       <c r="U109" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V109" t="s">
         <v>0</v>
@@ -12962,10 +12962,10 @@
         <v>0</v>
       </c>
       <c r="L111" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M111" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N111" t="s">
         <v>0</v>
@@ -13054,7 +13054,7 @@
         <v>0</v>
       </c>
       <c r="D112" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E112" t="s">
         <v>0</v>
@@ -13159,7 +13159,7 @@
         <v>0</v>
       </c>
       <c r="AM112" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:39">
@@ -13438,7 +13438,7 @@
         <v>1</v>
       </c>
       <c r="P115" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q115" t="s">
         <v>0</v>
@@ -13846,7 +13846,7 @@
         <v>0</v>
       </c>
       <c r="AJ118" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK118" t="s">
         <v>0</v>
@@ -13908,7 +13908,7 @@
         <v>0</v>
       </c>
       <c r="R119" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S119" t="s">
         <v>1</v>
@@ -13950,7 +13950,7 @@
         <v>0</v>
       </c>
       <c r="AF119" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG119" t="s">
         <v>0</v>
@@ -13962,13 +13962,13 @@
         <v>0</v>
       </c>
       <c r="AJ119" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK119" t="s">
         <v>0</v>
       </c>
       <c r="AL119" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM119" t="s">
         <v>0</v>
@@ -14131,7 +14131,7 @@
         <v>0</v>
       </c>
       <c r="O121" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P121" t="s">
         <v>1</v>
@@ -14158,7 +14158,7 @@
         <v>0</v>
       </c>
       <c r="X121" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y121" t="s">
         <v>0</v>
@@ -14280,7 +14280,7 @@
         <v>0</v>
       </c>
       <c r="Z122" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA122" t="s">
         <v>0</v>
@@ -14423,7 +14423,7 @@
         <v>0</v>
       </c>
       <c r="AI123" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ123" t="s">
         <v>0</v>
@@ -14586,7 +14586,7 @@
         <v>1</v>
       </c>
       <c r="L125" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M125" t="s">
         <v>0</v>
@@ -14699,7 +14699,7 @@
         <v>0</v>
       </c>
       <c r="K126" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L126" t="s">
         <v>1</v>
@@ -14744,7 +14744,7 @@
         <v>0</v>
       </c>
       <c r="Z126" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA126" t="s">
         <v>0</v>
@@ -14768,7 +14768,7 @@
         <v>0</v>
       </c>
       <c r="AH126" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI126" t="s">
         <v>0</v>
@@ -15020,7 +15020,7 @@
     </row>
     <row r="129" spans="1:39">
       <c r="B129" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C129" t="s">
         <v>1</v>
@@ -15041,7 +15041,7 @@
         <v>0</v>
       </c>
       <c r="I129" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J129" t="s">
         <v>2</v>
@@ -15077,7 +15077,7 @@
         <v>0</v>
       </c>
       <c r="U129" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V129" t="s">
         <v>0</v>
@@ -15104,7 +15104,7 @@
         <v>0</v>
       </c>
       <c r="AD129" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE129" t="s">
         <v>0</v>
@@ -15172,7 +15172,7 @@
         <v>0</v>
       </c>
       <c r="N130" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O130" t="s">
         <v>0</v>
@@ -15309,7 +15309,7 @@
         <v>0</v>
       </c>
       <c r="U131" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V131" t="s">
         <v>0</v>
@@ -15672,7 +15672,7 @@
         <v>0</v>
       </c>
       <c r="Z134" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA134" t="s">
         <v>0</v>
@@ -15728,7 +15728,7 @@
         <v>0</v>
       </c>
       <c r="F135" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G135" t="s">
         <v>1</v>
@@ -15746,7 +15746,7 @@
         <v>0</v>
       </c>
       <c r="L135" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M135" t="s">
         <v>0</v>
@@ -15978,7 +15978,7 @@
         <v>2</v>
       </c>
       <c r="L137" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M137" t="s">
         <v>1</v>
@@ -16374,7 +16374,7 @@
         <v>0</v>
       </c>
       <c r="AB140" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC140" t="s">
         <v>0</v>
@@ -16683,7 +16683,7 @@
         <v>0</v>
       </c>
       <c r="O143" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P143" t="s">
         <v>0</v>
@@ -16749,7 +16749,7 @@
         <v>0</v>
       </c>
       <c r="AK143" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL143" t="s">
         <v>0</v>
@@ -16790,7 +16790,7 @@
         <v>0</v>
       </c>
       <c r="L144" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M144" t="s">
         <v>0</v>
@@ -16820,7 +16820,7 @@
         <v>0</v>
       </c>
       <c r="V144" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W144" t="s">
         <v>0</v>
@@ -16936,7 +16936,7 @@
         <v>0</v>
       </c>
       <c r="V145" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W145" t="s">
         <v>0</v>
@@ -16998,7 +16998,7 @@
         <v>1</v>
       </c>
       <c r="D146" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E146" t="s">
         <v>0</v>
@@ -17007,7 +17007,7 @@
         <v>0</v>
       </c>
       <c r="G146" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H146" t="s">
         <v>0</v>
@@ -17049,7 +17049,7 @@
         <v>0</v>
       </c>
       <c r="U146" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V146" t="s">
         <v>1</v>
@@ -17058,7 +17058,7 @@
         <v>0</v>
       </c>
       <c r="X146" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y146" t="s">
         <v>0</v>
@@ -17114,7 +17114,7 @@
         <v>1</v>
       </c>
       <c r="D147" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E147" t="s">
         <v>0</v>
@@ -17486,7 +17486,7 @@
         <v>0</v>
       </c>
       <c r="L150" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M150" t="s">
         <v>1</v>
@@ -17516,7 +17516,7 @@
         <v>0</v>
       </c>
       <c r="V150" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W150" t="s">
         <v>0</v>
@@ -17691,7 +17691,7 @@
         <v>0</v>
       </c>
       <c r="C152" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D152" t="s">
         <v>1</v>
@@ -17941,7 +17941,7 @@
         <v>0</v>
       </c>
       <c r="I154" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J154" t="s">
         <v>0</v>
@@ -18036,7 +18036,7 @@
     </row>
     <row r="155" spans="1:39">
       <c r="B155" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C155" t="s">
         <v>0</v>
@@ -18170,7 +18170,7 @@
         <v>0</v>
       </c>
       <c r="H156" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I156" t="s">
         <v>0</v>
@@ -18456,10 +18456,10 @@
         <v>0</v>
       </c>
       <c r="Z158" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA158" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB158" t="s">
         <v>0</v>
@@ -18524,7 +18524,7 @@
         <v>0</v>
       </c>
       <c r="J159" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K159" t="s">
         <v>1</v>
@@ -18935,7 +18935,7 @@
         <v>0</v>
       </c>
       <c r="AE162" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF162" t="s">
         <v>0</v>
@@ -19063,7 +19063,7 @@
         <v>0</v>
       </c>
       <c r="AI163" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ163" t="s">
         <v>0</v>
@@ -19173,7 +19173,7 @@
         <v>0</v>
       </c>
       <c r="AG164" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AH164" t="s">
         <v>0</v>
@@ -20133,7 +20133,7 @@
         <v>0</v>
       </c>
       <c r="E173" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F173" t="s">
         <v>0</v>
@@ -20303,7 +20303,7 @@
         <v>0</v>
       </c>
       <c r="W174" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X174" t="s">
         <v>0</v>
@@ -20389,7 +20389,7 @@
         <v>0</v>
       </c>
       <c r="M175" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N175" t="s">
         <v>0</v>
@@ -22891,7 +22891,7 @@
         <v>0</v>
       </c>
       <c r="AI196" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ196" t="s">
         <v>0</v>
@@ -23679,7 +23679,7 @@
         <v>0</v>
       </c>
       <c r="AA203" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB203" t="s">
         <v>0</v>
@@ -24875,7 +24875,7 @@
         <v>0</v>
       </c>
       <c r="AM213" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:39">
@@ -26035,7 +26035,7 @@
         <v>0</v>
       </c>
       <c r="AM223" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:39">
@@ -26195,7 +26195,7 @@
         <v>0</v>
       </c>
       <c r="O225" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P225" t="s">
         <v>0</v>
@@ -26311,7 +26311,7 @@
         <v>0</v>
       </c>
       <c r="O226" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P226" t="s">
         <v>0</v>
@@ -26567,7 +26567,7 @@
         <v>0</v>
       </c>
       <c r="W228" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X228" t="s">
         <v>0</v>
@@ -26606,7 +26606,7 @@
         <v>0</v>
       </c>
       <c r="AJ228" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK228" t="s">
         <v>0</v>
@@ -26781,7 +26781,7 @@
         <v>0</v>
       </c>
       <c r="Q230" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R230" t="s">
         <v>0</v>
@@ -27275,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="AA234" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB234" t="s">
         <v>0</v>
@@ -28004,7 +28004,7 @@
         <v>0</v>
       </c>
       <c r="AL240" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AM240" t="s">
         <v>0</v>
@@ -28102,7 +28102,7 @@
         <v>1</v>
       </c>
       <c r="AF241" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AG241" t="s">
         <v>0</v>
@@ -28625,7 +28625,7 @@
         <v>0</v>
       </c>
       <c r="M246" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N246" t="s">
         <v>0</v>
@@ -28842,7 +28842,7 @@
         <v>0</v>
       </c>
       <c r="H248" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I248" t="s">
         <v>0</v>
@@ -28863,7 +28863,7 @@
         <v>0</v>
       </c>
       <c r="O248" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P248" t="s">
         <v>0</v>
@@ -28976,7 +28976,7 @@
         <v>0</v>
       </c>
       <c r="N249" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O249" t="s">
         <v>1</v>
@@ -29217,7 +29217,7 @@
         <v>0</v>
       </c>
       <c r="Q251" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R251" t="s">
         <v>0</v>
@@ -29244,7 +29244,7 @@
         <v>0</v>
       </c>
       <c r="Z251" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AA251" t="s">
         <v>1</v>
@@ -29271,7 +29271,7 @@
         <v>0</v>
       </c>
       <c r="AI251" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ251" t="s">
         <v>0</v>
@@ -29559,7 +29559,7 @@
         <v>0</v>
       </c>
       <c r="O254" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P254" t="s">
         <v>0</v>
@@ -29574,7 +29574,7 @@
         <v>0</v>
       </c>
       <c r="T254" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U254" t="s">
         <v>1</v>
@@ -29598,7 +29598,7 @@
         <v>0</v>
       </c>
       <c r="AB254" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC254" t="s">
         <v>0</v>
@@ -29693,13 +29693,13 @@
         <v>0</v>
       </c>
       <c r="U255" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V255" t="s">
         <v>0</v>
       </c>
       <c r="W255" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X255" t="s">
         <v>0</v>
@@ -29752,7 +29752,7 @@
     </row>
     <row r="256" spans="1:39">
       <c r="B256" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C256" t="s">
         <v>0</v>
@@ -29874,7 +29874,7 @@
         <v>0</v>
       </c>
       <c r="D257" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E257" t="s">
         <v>0</v>
@@ -29889,7 +29889,7 @@
         <v>0</v>
       </c>
       <c r="I257" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J257" t="s">
         <v>0</v>
@@ -29913,7 +29913,7 @@
         <v>0</v>
       </c>
       <c r="Q257" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R257" t="s">
         <v>1</v>
@@ -30175,7 +30175,7 @@
         <v>0</v>
       </c>
       <c r="AA259" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB259" t="s">
         <v>0</v>
@@ -30472,7 +30472,7 @@
         <v>1</v>
       </c>
       <c r="J262" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K262" t="s">
         <v>0</v>
@@ -30669,7 +30669,7 @@
         <v>0</v>
       </c>
       <c r="AK263" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL263" t="s">
         <v>0</v>
@@ -30710,7 +30710,7 @@
         <v>0</v>
       </c>
       <c r="L264" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M264" t="s">
         <v>0</v>
@@ -30814,7 +30814,7 @@
         <v>0</v>
       </c>
       <c r="H265" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I265" t="s">
         <v>1</v>
@@ -30942,7 +30942,7 @@
         <v>1</v>
       </c>
       <c r="L266" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M266" t="s">
         <v>0</v>
@@ -30987,7 +30987,7 @@
         <v>0</v>
       </c>
       <c r="AA266" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB266" t="s">
         <v>0</v>
@@ -31150,7 +31150,7 @@
         <v>1</v>
       </c>
       <c r="D268" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E268" t="s">
         <v>0</v>
@@ -31177,7 +31177,7 @@
         <v>1</v>
       </c>
       <c r="M268" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N268" t="s">
         <v>1</v>
@@ -31564,7 +31564,7 @@
         <v>0</v>
       </c>
       <c r="Z271" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA271" t="s">
         <v>0</v>
@@ -31665,7 +31665,7 @@
         <v>0</v>
       </c>
       <c r="U272" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V272" t="s">
         <v>1</v>
@@ -31995,13 +31995,13 @@
         <v>1</v>
       </c>
       <c r="O275" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P275" t="s">
         <v>0</v>
       </c>
       <c r="Q275" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R275" t="s">
         <v>1</v>
@@ -32099,7 +32099,7 @@
         <v>1</v>
       </c>
       <c r="K276" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L276" t="s">
         <v>0</v>
@@ -32162,7 +32162,7 @@
         <v>0</v>
       </c>
       <c r="AF276" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG276" t="s">
         <v>0</v>
@@ -32183,7 +32183,7 @@
         <v>1</v>
       </c>
       <c r="AM276" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="277" spans="1:39">
@@ -32227,7 +32227,7 @@
         <v>2</v>
       </c>
       <c r="O277" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P277" t="s">
         <v>0</v>
@@ -32370,7 +32370,7 @@
         <v>2</v>
       </c>
       <c r="X278" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y278" t="s">
         <v>0</v>
@@ -32536,7 +32536,7 @@
     </row>
     <row r="280" spans="1:39">
       <c r="B280" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C280" t="s">
         <v>1</v>
@@ -32611,7 +32611,7 @@
         <v>1</v>
       </c>
       <c r="AA280" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB280" t="s">
         <v>0</v>
@@ -32715,7 +32715,7 @@
         <v>0</v>
       </c>
       <c r="W281" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X281" t="s">
         <v>0</v>
@@ -32771,16 +32771,16 @@
         <v>1</v>
       </c>
       <c r="C282" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D282" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E282" t="s">
         <v>0</v>
       </c>
       <c r="F282" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G282" t="s">
         <v>0</v>
@@ -32887,7 +32887,7 @@
         <v>1</v>
       </c>
       <c r="C283" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D283" t="s">
         <v>1</v>
@@ -33200,7 +33200,7 @@
         <v>0</v>
       </c>
       <c r="AD285" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE285" t="s">
         <v>0</v>
@@ -33221,7 +33221,7 @@
         <v>2</v>
       </c>
       <c r="AK285" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL285" t="s">
         <v>1</v>
@@ -33363,7 +33363,7 @@
         <v>1</v>
       </c>
       <c r="G287" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H287" t="s">
         <v>0</v>
@@ -33375,7 +33375,7 @@
         <v>0</v>
       </c>
       <c r="K287" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L287" t="s">
         <v>0</v>
@@ -33390,7 +33390,7 @@
         <v>1</v>
       </c>
       <c r="P287" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q287" t="s">
         <v>2</v>
@@ -33435,7 +33435,7 @@
         <v>0</v>
       </c>
       <c r="AE287" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AF287" t="s">
         <v>0</v>
@@ -33473,7 +33473,7 @@
         <v>0</v>
       </c>
       <c r="E288" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F288" t="s">
         <v>0</v>
@@ -33509,7 +33509,7 @@
         <v>1</v>
       </c>
       <c r="Q288" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R288" t="s">
         <v>0</v>
@@ -33518,7 +33518,7 @@
         <v>0</v>
       </c>
       <c r="T288" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U288" t="s">
         <v>2</v>
@@ -33622,7 +33622,7 @@
         <v>0</v>
       </c>
       <c r="P289" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q289" t="s">
         <v>0</v>
@@ -33667,7 +33667,7 @@
         <v>0</v>
       </c>
       <c r="AE289" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AF289" t="s">
         <v>0</v>
@@ -33691,7 +33691,7 @@
         <v>0</v>
       </c>
       <c r="AM289" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="290" spans="1:39">
@@ -33705,7 +33705,7 @@
         <v>0</v>
       </c>
       <c r="E290" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F290" t="s">
         <v>0</v>
@@ -33735,10 +33735,10 @@
         <v>0</v>
       </c>
       <c r="O290" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P290" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q290" t="s">
         <v>0</v>
@@ -33786,7 +33786,7 @@
         <v>0</v>
       </c>
       <c r="AF290" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AG290" t="s">
         <v>0</v>
@@ -33795,7 +33795,7 @@
         <v>0</v>
       </c>
       <c r="AI290" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ290" t="s">
         <v>0</v>
@@ -33836,7 +33836,7 @@
         <v>1</v>
       </c>
       <c r="J291" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K291" t="s">
         <v>0</v>
@@ -33860,7 +33860,7 @@
         <v>0</v>
       </c>
       <c r="R291" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S291" t="s">
         <v>0</v>
@@ -33875,7 +33875,7 @@
         <v>0</v>
       </c>
       <c r="W291" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X291" t="s">
         <v>0</v>
@@ -33902,7 +33902,7 @@
         <v>0</v>
       </c>
       <c r="AF291" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AG291" t="s">
         <v>0</v>
@@ -33911,7 +33911,7 @@
         <v>0</v>
       </c>
       <c r="AI291" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ291" t="s">
         <v>1</v>
@@ -33949,7 +33949,7 @@
         <v>0</v>
       </c>
       <c r="I292" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J292" t="s">
         <v>0</v>
@@ -33961,10 +33961,10 @@
         <v>0</v>
       </c>
       <c r="M292" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N292" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O292" t="s">
         <v>0</v>
@@ -34036,7 +34036,7 @@
         <v>0</v>
       </c>
       <c r="AL292" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM292" t="s">
         <v>0</v>
@@ -34268,7 +34268,7 @@
         <v>0</v>
       </c>
       <c r="AL294" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM294" t="s">
         <v>0</v>
@@ -34288,7 +34288,7 @@
         <v>0</v>
       </c>
       <c r="F295" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G295" t="s">
         <v>1</v>
@@ -34369,7 +34369,7 @@
         <v>0</v>
       </c>
       <c r="AG295" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AH295" t="s">
         <v>1</v>
@@ -34464,7 +34464,7 @@
         <v>0</v>
       </c>
       <c r="Z296" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA296" t="s">
         <v>0</v>
@@ -34550,7 +34550,7 @@
         <v>0</v>
       </c>
       <c r="P297" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q297" t="s">
         <v>2</v>
@@ -34639,7 +34639,7 @@
         <v>0</v>
       </c>
       <c r="G298" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H298" t="s">
         <v>1</v>
@@ -34699,13 +34699,13 @@
         <v>1</v>
       </c>
       <c r="AA298" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB298" t="s">
         <v>2</v>
       </c>
       <c r="AC298" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD298" t="s">
         <v>2</v>
@@ -34726,7 +34726,7 @@
         <v>0</v>
       </c>
       <c r="AJ298" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK298" t="s">
         <v>0</v>
@@ -34794,7 +34794,7 @@
         <v>0</v>
       </c>
       <c r="T299" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U299" t="s">
         <v>1</v>
@@ -34886,7 +34886,7 @@
         <v>0</v>
       </c>
       <c r="L300" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M300" t="s">
         <v>0</v>
@@ -34931,7 +34931,7 @@
         <v>0</v>
       </c>
       <c r="AA300" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB300" t="s">
         <v>1</v>
@@ -34946,7 +34946,7 @@
         <v>0</v>
       </c>
       <c r="AF300" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG300" t="s">
         <v>0</v>
@@ -35002,7 +35002,7 @@
         <v>1</v>
       </c>
       <c r="L301" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M301" t="s">
         <v>1</v>
@@ -35175,7 +35175,7 @@
         <v>0</v>
       </c>
       <c r="AE302" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF302" t="s">
         <v>2</v>
@@ -35264,7 +35264,7 @@
         <v>1</v>
       </c>
       <c r="V303" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W303" t="s">
         <v>0</v>
@@ -35279,7 +35279,7 @@
         <v>0</v>
       </c>
       <c r="AA303" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB303" t="s">
         <v>0</v>
@@ -35303,7 +35303,7 @@
         <v>0</v>
       </c>
       <c r="AI303" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ303" t="s">
         <v>1</v>
@@ -35338,7 +35338,7 @@
         <v>0</v>
       </c>
       <c r="H304" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I304" t="s">
         <v>1</v>
@@ -35356,7 +35356,7 @@
         <v>0</v>
       </c>
       <c r="N304" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O304" t="s">
         <v>1</v>
@@ -35422,7 +35422,7 @@
         <v>2</v>
       </c>
       <c r="AJ304" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK304" t="s">
         <v>0</v>
@@ -35532,7 +35532,7 @@
         <v>0</v>
       </c>
       <c r="AH305" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI305" t="s">
         <v>1</v>
@@ -35677,7 +35677,7 @@
         <v>0</v>
       </c>
       <c r="E307" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F307" t="s">
         <v>1</v>
@@ -35686,7 +35686,7 @@
         <v>1</v>
       </c>
       <c r="H307" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I307" t="s">
         <v>0</v>
@@ -35704,7 +35704,7 @@
         <v>0</v>
       </c>
       <c r="N307" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O307" t="s">
         <v>1</v>
@@ -35716,7 +35716,7 @@
         <v>2</v>
       </c>
       <c r="R307" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S307" t="s">
         <v>1</v>
@@ -35761,13 +35761,13 @@
         <v>0</v>
       </c>
       <c r="AG307" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH307" t="s">
         <v>0</v>
       </c>
       <c r="AI307" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ307" t="s">
         <v>2</v>
@@ -35776,7 +35776,7 @@
         <v>0</v>
       </c>
       <c r="AL307" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM307" t="s">
         <v>0</v>
@@ -35871,7 +35871,7 @@
         <v>0</v>
       </c>
       <c r="AE308" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF308" t="s">
         <v>0</v>
@@ -35886,13 +35886,13 @@
         <v>1</v>
       </c>
       <c r="AJ308" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK308" t="s">
         <v>0</v>
       </c>
       <c r="AL308" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM308" t="s">
         <v>1</v>
@@ -35903,7 +35903,7 @@
         <v>0</v>
       </c>
       <c r="C309" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D309" t="s">
         <v>0</v>
@@ -35951,7 +35951,7 @@
         <v>0</v>
       </c>
       <c r="S309" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T309" t="s">
         <v>0</v>
@@ -35987,7 +35987,7 @@
         <v>0</v>
       </c>
       <c r="AE309" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF309" t="s">
         <v>0</v>
@@ -36008,10 +36008,10 @@
         <v>0</v>
       </c>
       <c r="AL309" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM309" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="310" spans="1:39">
@@ -36019,7 +36019,7 @@
         <v>0</v>
       </c>
       <c r="C310" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D310" t="s">
         <v>0</v>
@@ -36076,7 +36076,7 @@
         <v>1</v>
       </c>
       <c r="V310" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W310" t="s">
         <v>1</v>
@@ -36124,7 +36124,7 @@
         <v>0</v>
       </c>
       <c r="AL310" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM310" t="s">
         <v>1</v>
@@ -36138,7 +36138,7 @@
         <v>1</v>
       </c>
       <c r="D311" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E311" t="s">
         <v>1</v>
@@ -36162,7 +36162,7 @@
         <v>1</v>
       </c>
       <c r="L311" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M311" t="s">
         <v>1</v>
@@ -36177,7 +36177,7 @@
         <v>1</v>
       </c>
       <c r="Q311" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R311" t="s">
         <v>0</v>
@@ -36204,7 +36204,7 @@
         <v>1</v>
       </c>
       <c r="Z311" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA311" t="s">
         <v>2</v>
@@ -36290,7 +36290,7 @@
         <v>0</v>
       </c>
       <c r="P312" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q312" t="s">
         <v>0</v>
@@ -36311,7 +36311,7 @@
         <v>0</v>
       </c>
       <c r="W312" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X312" t="s">
         <v>0</v>
@@ -36367,7 +36367,7 @@
         <v>0</v>
       </c>
       <c r="C313" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D313" t="s">
         <v>1</v>
@@ -36394,7 +36394,7 @@
         <v>0</v>
       </c>
       <c r="L313" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M313" t="s">
         <v>0</v>
@@ -36427,7 +36427,7 @@
         <v>0</v>
       </c>
       <c r="W313" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X313" t="s">
         <v>0</v>
@@ -36668,37 +36668,37 @@
         <v>0</v>
       </c>
       <c r="Z315" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA315" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB315" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC315" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD315" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE315" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF315" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG315" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH315" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI315" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ315" t="s">
         <v>3</v>
-      </c>
-      <c r="AA315" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB315" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC315" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD315" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE315" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF315" t="s">
-        <v>0</v>
-      </c>
-      <c r="AG315" t="s">
-        <v>0</v>
-      </c>
-      <c r="AH315" t="s">
-        <v>1</v>
-      </c>
-      <c r="AI315" t="s">
-        <v>0</v>
-      </c>
-      <c r="AJ315" t="s">
-        <v>1</v>
       </c>
       <c r="AK315" t="s">
         <v>2</v>
@@ -36712,7 +36712,7 @@
     </row>
     <row r="316" spans="1:39">
       <c r="B316" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C316" t="s">
         <v>0</v>
@@ -36763,7 +36763,7 @@
         <v>0</v>
       </c>
       <c r="S316" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T316" t="s">
         <v>1</v>
@@ -36787,7 +36787,7 @@
         <v>0</v>
       </c>
       <c r="AA316" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB316" t="s">
         <v>2</v>
@@ -36814,16 +36814,16 @@
         <v>0</v>
       </c>
       <c r="AJ316" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK316" t="s">
         <v>1</v>
       </c>
       <c r="AL316" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AM316" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="317" spans="1:39">
@@ -36873,13 +36873,13 @@
         <v>0</v>
       </c>
       <c r="Q317" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R317" t="s">
         <v>1</v>
       </c>
       <c r="S317" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T317" t="s">
         <v>0</v>
@@ -36906,7 +36906,7 @@
         <v>2</v>
       </c>
       <c r="AB317" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC317" t="s">
         <v>1</v>
@@ -36915,13 +36915,13 @@
         <v>0</v>
       </c>
       <c r="AE317" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF317" t="s">
         <v>0</v>
       </c>
       <c r="AG317" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH317" t="s">
         <v>0</v>
@@ -36953,7 +36953,7 @@
         <v>0</v>
       </c>
       <c r="E318" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F318" t="s">
         <v>0</v>
@@ -36983,7 +36983,7 @@
         <v>1</v>
       </c>
       <c r="O318" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P318" t="s">
         <v>3</v>
@@ -37007,7 +37007,7 @@
         <v>1</v>
       </c>
       <c r="W318" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X318" t="s">
         <v>0</v>
@@ -37093,7 +37093,7 @@
         <v>1</v>
       </c>
       <c r="M319" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N319" t="s">
         <v>0</v>
@@ -37162,13 +37162,13 @@
         <v>0</v>
       </c>
       <c r="AJ319" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK319" t="s">
         <v>0</v>
       </c>
       <c r="AL319" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM319" t="s">
         <v>1</v>
@@ -37227,7 +37227,7 @@
         <v>1</v>
       </c>
       <c r="S320" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T320" t="s">
         <v>2</v>
@@ -37281,7 +37281,7 @@
         <v>2</v>
       </c>
       <c r="AK320" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL320" t="s">
         <v>2</v>
@@ -37316,7 +37316,7 @@
         <v>1</v>
       </c>
       <c r="J321" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K321" t="s">
         <v>2</v>
@@ -37423,7 +37423,7 @@
         <v>0</v>
       </c>
       <c r="G322" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H322" t="s">
         <v>1</v>
@@ -37447,7 +37447,7 @@
         <v>0</v>
       </c>
       <c r="O322" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P322" t="s">
         <v>1</v>
@@ -37495,7 +37495,7 @@
         <v>1</v>
       </c>
       <c r="AE322" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF322" t="s">
         <v>1</v>
@@ -37524,7 +37524,7 @@
     </row>
     <row r="323" spans="1:39">
       <c r="B323" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C323" t="s">
         <v>1</v>
@@ -37587,7 +37587,7 @@
         <v>2</v>
       </c>
       <c r="W323" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X323" t="s">
         <v>0</v>
@@ -37617,7 +37617,7 @@
         <v>0</v>
       </c>
       <c r="AG323" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH323" t="s">
         <v>0</v>
@@ -37703,7 +37703,7 @@
         <v>2</v>
       </c>
       <c r="W324" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X324" t="s">
         <v>0</v>
@@ -37739,7 +37739,7 @@
         <v>0</v>
       </c>
       <c r="AI324" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ324" t="s">
         <v>1</v>
@@ -37819,7 +37819,7 @@
         <v>0</v>
       </c>
       <c r="W325" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X325" t="s">
         <v>0</v>
@@ -37890,7 +37890,7 @@
         <v>1</v>
       </c>
       <c r="H326" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I326" t="s">
         <v>2</v>
@@ -37953,7 +37953,7 @@
         <v>0</v>
       </c>
       <c r="AC326" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD326" t="s">
         <v>0</v>
@@ -37983,7 +37983,7 @@
         <v>0</v>
       </c>
       <c r="AM326" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="327" spans="1:39">
@@ -38018,7 +38018,7 @@
         <v>1</v>
       </c>
       <c r="L327" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M327" t="s">
         <v>0</v>
@@ -38045,7 +38045,7 @@
         <v>0</v>
       </c>
       <c r="U327" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V327" t="s">
         <v>0</v>
@@ -38084,7 +38084,7 @@
         <v>1</v>
       </c>
       <c r="AH327" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AI327" t="s">
         <v>1</v>
@@ -38107,7 +38107,7 @@
         <v>1</v>
       </c>
       <c r="C328" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D328" t="s">
         <v>0</v>
@@ -38137,7 +38137,7 @@
         <v>2</v>
       </c>
       <c r="M328" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N328" t="s">
         <v>1</v>
@@ -38167,7 +38167,7 @@
         <v>0</v>
       </c>
       <c r="W328" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X328" t="s">
         <v>2</v>
@@ -38220,7 +38220,7 @@
     </row>
     <row r="329" spans="1:39">
       <c r="B329" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C329" t="s">
         <v>1</v>
@@ -38339,7 +38339,7 @@
         <v>2</v>
       </c>
       <c r="C330" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D330" t="s">
         <v>1</v>
@@ -38351,7 +38351,7 @@
         <v>0</v>
       </c>
       <c r="G330" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H330" t="s">
         <v>2</v>
@@ -38378,7 +38378,7 @@
         <v>0</v>
       </c>
       <c r="P330" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q330" t="s">
         <v>3</v>
@@ -38414,7 +38414,7 @@
         <v>0</v>
       </c>
       <c r="AB330" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC330" t="s">
         <v>1</v>
@@ -38426,7 +38426,7 @@
         <v>0</v>
       </c>
       <c r="AF330" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG330" t="s">
         <v>0</v>
@@ -38488,7 +38488,7 @@
         <v>0</v>
       </c>
       <c r="N331" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O331" t="s">
         <v>0</v>
@@ -38699,13 +38699,13 @@
         <v>0</v>
       </c>
       <c r="G333" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H333" t="s">
         <v>0</v>
       </c>
       <c r="I333" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J333" t="s">
         <v>1</v>
@@ -38753,10 +38753,10 @@
         <v>0</v>
       </c>
       <c r="Y333" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z333" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA333" t="s">
         <v>0</v>
@@ -38777,7 +38777,7 @@
         <v>2</v>
       </c>
       <c r="AG333" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH333" t="s">
         <v>1</v>
@@ -38824,13 +38824,13 @@
         <v>2</v>
       </c>
       <c r="J334" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K334" t="s">
         <v>0</v>
       </c>
       <c r="L334" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M334" t="s">
         <v>1</v>
@@ -38881,7 +38881,7 @@
         <v>2</v>
       </c>
       <c r="AC334" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD334" t="s">
         <v>1</v>
@@ -38902,7 +38902,7 @@
         <v>2</v>
       </c>
       <c r="AJ334" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK334" t="s">
         <v>0</v>
@@ -38955,7 +38955,7 @@
         <v>0</v>
       </c>
       <c r="O335" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P335" t="s">
         <v>0</v>
@@ -38976,7 +38976,7 @@
         <v>0</v>
       </c>
       <c r="V335" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W335" t="s">
         <v>0</v>
@@ -38988,13 +38988,13 @@
         <v>3</v>
       </c>
       <c r="Z335" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA335" t="s">
         <v>1</v>
       </c>
       <c r="AB335" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC335" t="s">
         <v>1</v>
@@ -39059,7 +39059,7 @@
         <v>2</v>
       </c>
       <c r="K336" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L336" t="s">
         <v>0</v>
@@ -39080,7 +39080,7 @@
         <v>0</v>
       </c>
       <c r="R336" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S336" t="s">
         <v>2</v>
@@ -39157,7 +39157,7 @@
         <v>1</v>
       </c>
       <c r="E337" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F337" t="s">
         <v>0</v>
@@ -39172,7 +39172,7 @@
         <v>3</v>
       </c>
       <c r="J337" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K337" t="s">
         <v>0</v>
@@ -39196,7 +39196,7 @@
         <v>0</v>
       </c>
       <c r="R337" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S337" t="s">
         <v>0</v>
@@ -39205,7 +39205,7 @@
         <v>0</v>
       </c>
       <c r="U337" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V337" t="s">
         <v>0</v>
@@ -39244,7 +39244,7 @@
         <v>2</v>
       </c>
       <c r="AH337" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI337" t="s">
         <v>0</v>
@@ -39264,7 +39264,7 @@
     </row>
     <row r="338" spans="1:39">
       <c r="B338" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C338" t="s">
         <v>1</v>
@@ -39285,16 +39285,16 @@
         <v>0</v>
       </c>
       <c r="I338" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J338" t="s">
         <v>1</v>
       </c>
       <c r="K338" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L338" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M338" t="s">
         <v>3</v>
@@ -39312,7 +39312,7 @@
         <v>0</v>
       </c>
       <c r="R338" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S338" t="s">
         <v>1</v>
@@ -39333,7 +39333,7 @@
         <v>0</v>
       </c>
       <c r="Y338" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Z338" t="s">
         <v>1</v>
@@ -39410,7 +39410,7 @@
         <v>2</v>
       </c>
       <c r="L339" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M339" t="s">
         <v>0</v>
@@ -39565,7 +39565,7 @@
         <v>0</v>
       </c>
       <c r="Y340" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z340" t="s">
         <v>1</v>
@@ -39618,7 +39618,7 @@
         <v>0</v>
       </c>
       <c r="D341" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E341" t="s">
         <v>0</v>
@@ -39675,7 +39675,7 @@
         <v>2</v>
       </c>
       <c r="W341" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X341" t="s">
         <v>0</v>
@@ -39705,7 +39705,7 @@
         <v>0</v>
       </c>
       <c r="AG341" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH341" t="s">
         <v>1</v>
@@ -39785,32 +39785,32 @@
         <v>3</v>
       </c>
       <c r="U342" t="s">
+        <v>2</v>
+      </c>
+      <c r="V342" t="s">
+        <v>1</v>
+      </c>
+      <c r="W342" t="s">
+        <v>2</v>
+      </c>
+      <c r="X342" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y342" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z342" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA342" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB342" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC342" t="s">
         <v>3</v>
       </c>
-      <c r="V342" t="s">
-        <v>1</v>
-      </c>
-      <c r="W342" t="s">
-        <v>2</v>
-      </c>
-      <c r="X342" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y342" t="s">
-        <v>1</v>
-      </c>
-      <c r="Z342" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA342" t="s">
-        <v>1</v>
-      </c>
-      <c r="AB342" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC342" t="s">
-        <v>0</v>
-      </c>
       <c r="AD342" t="s">
         <v>0</v>
       </c>
@@ -39839,7 +39839,7 @@
         <v>0</v>
       </c>
       <c r="AM342" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="343" spans="1:39">
@@ -39919,7 +39919,7 @@
         <v>0</v>
       </c>
       <c r="AA343" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB343" t="s">
         <v>1</v>
@@ -39978,7 +39978,7 @@
         <v>1</v>
       </c>
       <c r="H344" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I344" t="s">
         <v>0</v>
@@ -39993,7 +39993,7 @@
         <v>0</v>
       </c>
       <c r="M344" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N344" t="s">
         <v>0</v>
@@ -40154,7 +40154,7 @@
         <v>0</v>
       </c>
       <c r="AB345" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC345" t="s">
         <v>2</v>
@@ -40178,13 +40178,13 @@
         <v>1</v>
       </c>
       <c r="AJ345" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AK345" t="s">
         <v>0</v>
       </c>
       <c r="AL345" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM345" t="s">
         <v>1</v>
@@ -40323,7 +40323,7 @@
         <v>0</v>
       </c>
       <c r="G347" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H347" t="s">
         <v>1</v>
@@ -40484,7 +40484,7 @@
         <v>1</v>
       </c>
       <c r="V348" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W348" t="s">
         <v>0</v>
@@ -40511,7 +40511,7 @@
         <v>1</v>
       </c>
       <c r="AE348" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF348" t="s">
         <v>0</v>
@@ -40523,7 +40523,7 @@
         <v>1</v>
       </c>
       <c r="AI348" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ348" t="s">
         <v>0</v>
@@ -40665,28 +40665,28 @@
         <v>0</v>
       </c>
       <c r="E350" t="s">
+        <v>2</v>
+      </c>
+      <c r="F350" t="s">
+        <v>1</v>
+      </c>
+      <c r="G350" t="s">
+        <v>0</v>
+      </c>
+      <c r="H350" t="s">
+        <v>1</v>
+      </c>
+      <c r="I350" t="s">
+        <v>1</v>
+      </c>
+      <c r="J350" t="s">
+        <v>1</v>
+      </c>
+      <c r="K350" t="s">
+        <v>1</v>
+      </c>
+      <c r="L350" t="s">
         <v>3</v>
-      </c>
-      <c r="F350" t="s">
-        <v>1</v>
-      </c>
-      <c r="G350" t="s">
-        <v>0</v>
-      </c>
-      <c r="H350" t="s">
-        <v>0</v>
-      </c>
-      <c r="I350" t="s">
-        <v>1</v>
-      </c>
-      <c r="J350" t="s">
-        <v>1</v>
-      </c>
-      <c r="K350" t="s">
-        <v>1</v>
-      </c>
-      <c r="L350" t="s">
-        <v>0</v>
       </c>
       <c r="M350" t="s">
         <v>0</v>
@@ -40847,7 +40847,7 @@
         <v>0</v>
       </c>
       <c r="AA351" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AB351" t="s">
         <v>0</v>
@@ -40963,7 +40963,7 @@
         <v>0</v>
       </c>
       <c r="AA352" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AB352" t="s">
         <v>0</v>
@@ -40993,7 +40993,7 @@
         <v>1</v>
       </c>
       <c r="AK352" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL352" t="s">
         <v>3</v>
@@ -41150,7 +41150,7 @@
         <v>0</v>
       </c>
       <c r="L354" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M354" t="s">
         <v>1</v>
@@ -41162,7 +41162,7 @@
         <v>1</v>
       </c>
       <c r="P354" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q354" t="s">
         <v>0</v>
@@ -41174,13 +41174,13 @@
         <v>2</v>
       </c>
       <c r="T354" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U354" t="s">
         <v>0</v>
       </c>
       <c r="V354" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W354" t="s">
         <v>1</v>
@@ -41266,7 +41266,7 @@
         <v>0</v>
       </c>
       <c r="L355" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M355" t="s">
         <v>2</v>
@@ -41275,7 +41275,7 @@
         <v>1</v>
       </c>
       <c r="O355" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P355" t="s">
         <v>1</v>
@@ -41394,7 +41394,7 @@
         <v>1</v>
       </c>
       <c r="P356" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q356" t="s">
         <v>0</v>
@@ -41424,7 +41424,7 @@
         <v>0</v>
       </c>
       <c r="Z356" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA356" t="s">
         <v>0</v>
@@ -41433,7 +41433,7 @@
         <v>0</v>
       </c>
       <c r="AC356" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD356" t="s">
         <v>2</v>
@@ -41495,7 +41495,7 @@
         <v>0</v>
       </c>
       <c r="K357" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L357" t="s">
         <v>1</v>
@@ -41561,10 +41561,10 @@
         <v>0</v>
       </c>
       <c r="AG357" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH357" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI357" t="s">
         <v>0</v>
@@ -41709,7 +41709,7 @@
         <v>1</v>
       </c>
       <c r="E359" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F359" t="s">
         <v>3</v>
@@ -41742,10 +41742,10 @@
         <v>0</v>
       </c>
       <c r="P359" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q359" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R359" t="s">
         <v>3</v>
@@ -41772,7 +41772,7 @@
         <v>1</v>
       </c>
       <c r="Z359" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AA359" t="s">
         <v>1</v>
@@ -41781,7 +41781,7 @@
         <v>0</v>
       </c>
       <c r="AC359" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD359" t="s">
         <v>1</v>
@@ -41808,7 +41808,7 @@
         <v>0</v>
       </c>
       <c r="AL359" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AM359" t="s">
         <v>1</v>
@@ -41837,7 +41837,7 @@
         <v>0</v>
       </c>
       <c r="I360" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J360" t="s">
         <v>0</v>
@@ -41935,7 +41935,7 @@
         <v>0</v>
       </c>
       <c r="C361" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D361" t="s">
         <v>0</v>
@@ -41944,13 +41944,13 @@
         <v>2</v>
       </c>
       <c r="F361" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G361" t="s">
         <v>1</v>
       </c>
       <c r="H361" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I361" t="s">
         <v>0</v>
@@ -42037,7 +42037,7 @@
         <v>0</v>
       </c>
       <c r="AK361" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL361" t="s">
         <v>0</v>
@@ -42051,7 +42051,7 @@
         <v>0</v>
       </c>
       <c r="C362" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D362" t="s">
         <v>0</v>
@@ -42072,7 +42072,7 @@
         <v>0</v>
       </c>
       <c r="J362" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K362" t="s">
         <v>0</v>
@@ -42188,7 +42188,7 @@
         <v>0</v>
       </c>
       <c r="J363" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K363" t="s">
         <v>0</v>
@@ -42289,7 +42289,7 @@
         <v>0</v>
       </c>
       <c r="E364" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F364" t="s">
         <v>0</v>
@@ -42313,7 +42313,7 @@
         <v>0</v>
       </c>
       <c r="M364" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N364" t="s">
         <v>0</v>
@@ -42343,13 +42343,13 @@
         <v>0</v>
       </c>
       <c r="W364" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X364" t="s">
         <v>0</v>
       </c>
       <c r="Y364" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Z364" t="s">
         <v>0</v>
@@ -42391,7 +42391,7 @@
         <v>2</v>
       </c>
       <c r="AM364" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="365" spans="1:39">
@@ -42495,7 +42495,7 @@
         <v>1</v>
       </c>
       <c r="AI365" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ365" t="s">
         <v>1</v>
@@ -42527,10 +42527,10 @@
         <v>1</v>
       </c>
       <c r="G366" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H366" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I366" t="s">
         <v>0</v>
@@ -42563,7 +42563,7 @@
         <v>1</v>
       </c>
       <c r="S366" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T366" t="s">
         <v>0</v>
@@ -42730,7 +42730,7 @@
         <v>1</v>
       </c>
       <c r="AJ367" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK367" t="s">
         <v>0</v>

--- a/python/Statistics/Results/RST_classification_NCEP_1979-2016.xlsx
+++ b/python/Statistics/Results/RST_classification_NCEP_1979-2016.xlsx
@@ -1,21 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hatzv\Documents\Geography\RSTs\python\Statistics\Results\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14246" uniqueCount="16">
   <si>
     <t>No RST</t>
   </si>
@@ -28,30 +32,80 @@
   <si>
     <t>West</t>
   </si>
+  <si>
+    <t>Jan</t>
+  </si>
+  <si>
+    <t>Feb</t>
+  </si>
+  <si>
+    <t>Mar</t>
+  </si>
+  <si>
+    <t>Apr</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>Jun</t>
+  </si>
+  <si>
+    <t>Jul</t>
+  </si>
+  <si>
+    <t>Aug</t>
+  </si>
+  <si>
+    <t>Sep</t>
+  </si>
+  <si>
+    <t>Oct</t>
+  </si>
+  <si>
+    <t>Nov</t>
+  </si>
+  <si>
+    <t>Dec</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="10"/>
+      <color indexed="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -59,17 +113,47 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -357,20 +441,136 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="B2:AM367"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AM367"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:39">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="3">
+        <v>1979</v>
+      </c>
+      <c r="C1" s="3">
+        <v>1980</v>
+      </c>
+      <c r="D1" s="3">
+        <v>1981</v>
+      </c>
+      <c r="E1" s="3">
+        <v>1982</v>
+      </c>
+      <c r="F1" s="3">
+        <v>1983</v>
+      </c>
+      <c r="G1" s="3">
+        <v>1984</v>
+      </c>
+      <c r="H1" s="3">
+        <v>1985</v>
+      </c>
+      <c r="I1" s="3">
+        <v>1986</v>
+      </c>
+      <c r="J1" s="3">
+        <v>1987</v>
+      </c>
+      <c r="K1" s="3">
+        <v>1988</v>
+      </c>
+      <c r="L1" s="3">
+        <v>1989</v>
+      </c>
+      <c r="M1" s="3">
+        <v>1990</v>
+      </c>
+      <c r="N1" s="3">
+        <v>1991</v>
+      </c>
+      <c r="O1" s="3">
+        <v>1992</v>
+      </c>
+      <c r="P1" s="3">
+        <v>1993</v>
+      </c>
+      <c r="Q1" s="3">
+        <v>1994</v>
+      </c>
+      <c r="R1" s="3">
+        <v>1995</v>
+      </c>
+      <c r="S1" s="3">
+        <v>1996</v>
+      </c>
+      <c r="T1" s="3">
+        <v>1997</v>
+      </c>
+      <c r="U1" s="3">
+        <v>1998</v>
+      </c>
+      <c r="V1" s="3">
+        <v>1999</v>
+      </c>
+      <c r="W1" s="3">
+        <v>2000</v>
+      </c>
+      <c r="X1" s="3">
+        <v>2001</v>
+      </c>
+      <c r="Y1" s="3">
+        <v>2002</v>
+      </c>
+      <c r="Z1" s="3">
+        <v>2003</v>
+      </c>
+      <c r="AA1" s="3">
+        <v>2004</v>
+      </c>
+      <c r="AB1" s="3">
+        <v>2005</v>
+      </c>
+      <c r="AC1" s="3">
+        <v>2006</v>
+      </c>
+      <c r="AD1" s="3">
+        <v>2007</v>
+      </c>
+      <c r="AE1" s="3">
+        <v>2008</v>
+      </c>
+      <c r="AF1" s="3">
+        <v>2009</v>
+      </c>
+      <c r="AG1" s="3">
+        <v>2010</v>
+      </c>
+      <c r="AH1" s="3">
+        <v>2011</v>
+      </c>
+      <c r="AI1" s="3">
+        <v>2012</v>
+      </c>
+      <c r="AJ1" s="3">
+        <v>2013</v>
+      </c>
+      <c r="AK1" s="3">
+        <v>2014</v>
+      </c>
+      <c r="AL1" s="3">
+        <v>2015</v>
+      </c>
+      <c r="AM1" s="4">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -486,7 +686,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:39">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -602,7 +805,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:39">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B4" t="s">
         <v>0</v>
       </c>
@@ -718,7 +924,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:39">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B5" t="s">
         <v>0</v>
       </c>
@@ -834,7 +1043,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:39">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B6" t="s">
         <v>0</v>
       </c>
@@ -950,7 +1162,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:39">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B7" t="s">
         <v>0</v>
       </c>
@@ -1066,7 +1281,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B8" t="s">
         <v>0</v>
       </c>
@@ -1182,7 +1400,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:39">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B9" t="s">
         <v>0</v>
       </c>
@@ -1298,7 +1519,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:39">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B10" t="s">
         <v>0</v>
       </c>
@@ -1414,7 +1638,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:39">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B11" t="s">
         <v>0</v>
       </c>
@@ -1530,7 +1757,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:39">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B12" t="s">
         <v>0</v>
       </c>
@@ -1646,7 +1876,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:39">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B13" t="s">
         <v>1</v>
       </c>
@@ -1762,7 +1995,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:39">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B14" t="s">
         <v>0</v>
       </c>
@@ -1878,7 +2114,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:39">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B15" t="s">
         <v>0</v>
       </c>
@@ -1994,7 +2233,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:39">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B16" t="s">
         <v>0</v>
       </c>
@@ -2110,7 +2352,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:39">
+    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B17" t="s">
         <v>1</v>
       </c>
@@ -2226,7 +2471,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:39">
+    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B18" t="s">
         <v>1</v>
       </c>
@@ -2342,7 +2590,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:39">
+    <row r="19" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B19" t="s">
         <v>0</v>
       </c>
@@ -2458,7 +2709,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:39">
+    <row r="20" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B20" t="s">
         <v>0</v>
       </c>
@@ -2574,7 +2828,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:39">
+    <row r="21" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B21" t="s">
         <v>0</v>
       </c>
@@ -2690,7 +2947,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:39">
+    <row r="22" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B22" t="s">
         <v>1</v>
       </c>
@@ -2806,7 +3066,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:39">
+    <row r="23" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B23" t="s">
         <v>0</v>
       </c>
@@ -2922,7 +3185,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:39">
+    <row r="24" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B24" t="s">
         <v>0</v>
       </c>
@@ -3038,7 +3304,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:39">
+    <row r="25" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B25" t="s">
         <v>0</v>
       </c>
@@ -3154,7 +3423,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:39">
+    <row r="26" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B26" t="s">
         <v>1</v>
       </c>
@@ -3270,7 +3542,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:39">
+    <row r="27" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B27" t="s">
         <v>3</v>
       </c>
@@ -3386,7 +3661,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:39">
+    <row r="28" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B28" t="s">
         <v>1</v>
       </c>
@@ -3502,7 +3780,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:39">
+    <row r="29" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B29" t="s">
         <v>1</v>
       </c>
@@ -3618,7 +3899,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:39">
+    <row r="30" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B30" t="s">
         <v>1</v>
       </c>
@@ -3734,7 +4018,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:39">
+    <row r="31" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B31" t="s">
         <v>1</v>
       </c>
@@ -3850,7 +4137,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:39">
+    <row r="32" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="B32" t="s">
         <v>0</v>
       </c>
@@ -3966,7 +4256,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:39">
+    <row r="33" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="B33" t="s">
         <v>0</v>
       </c>
@@ -4082,7 +4375,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:39">
+    <row r="34" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="B34" t="s">
         <v>0</v>
       </c>
@@ -4198,7 +4494,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:39">
+    <row r="35" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="B35" t="s">
         <v>0</v>
       </c>
@@ -4314,7 +4613,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:39">
+    <row r="36" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="B36" t="s">
         <v>1</v>
       </c>
@@ -4430,7 +4732,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:39">
+    <row r="37" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="B37" t="s">
         <v>0</v>
       </c>
@@ -4546,7 +4851,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:39">
+    <row r="38" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="B38" t="s">
         <v>0</v>
       </c>
@@ -4662,7 +4970,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:39">
+    <row r="39" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="B39" t="s">
         <v>0</v>
       </c>
@@ -4778,7 +5089,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:39">
+    <row r="40" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="B40" t="s">
         <v>0</v>
       </c>
@@ -4894,7 +5208,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:39">
+    <row r="41" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="B41" t="s">
         <v>0</v>
       </c>
@@ -5010,7 +5327,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:39">
+    <row r="42" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="B42" t="s">
         <v>0</v>
       </c>
@@ -5126,7 +5446,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:39">
+    <row r="43" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="B43" t="s">
         <v>0</v>
       </c>
@@ -5242,7 +5565,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:39">
+    <row r="44" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="B44" t="s">
         <v>0</v>
       </c>
@@ -5358,7 +5684,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:39">
+    <row r="45" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="B45" t="s">
         <v>0</v>
       </c>
@@ -5474,7 +5803,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:39">
+    <row r="46" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="B46" t="s">
         <v>0</v>
       </c>
@@ -5590,7 +5922,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:39">
+    <row r="47" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="B47" t="s">
         <v>0</v>
       </c>
@@ -5706,7 +6041,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:39">
+    <row r="48" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="B48" t="s">
         <v>0</v>
       </c>
@@ -5822,7 +6160,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:39">
+    <row r="49" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="B49" t="s">
         <v>1</v>
       </c>
@@ -5938,7 +6279,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:39">
+    <row r="50" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="B50" t="s">
         <v>2</v>
       </c>
@@ -6054,7 +6398,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:39">
+    <row r="51" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="B51" t="s">
         <v>0</v>
       </c>
@@ -6170,7 +6517,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:39">
+    <row r="52" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="B52" t="s">
         <v>0</v>
       </c>
@@ -6286,7 +6636,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:39">
+    <row r="53" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="B53" t="s">
         <v>0</v>
       </c>
@@ -6402,7 +6755,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:39">
+    <row r="54" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="B54" t="s">
         <v>0</v>
       </c>
@@ -6518,7 +6874,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:39">
+    <row r="55" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="B55" t="s">
         <v>0</v>
       </c>
@@ -6634,7 +6993,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:39">
+    <row r="56" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="B56" t="s">
         <v>0</v>
       </c>
@@ -6750,7 +7112,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:39">
+    <row r="57" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="B57" t="s">
         <v>0</v>
       </c>
@@ -6866,7 +7231,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:39">
+    <row r="58" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="B58" t="s">
         <v>3</v>
       </c>
@@ -6982,7 +7350,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:39">
+    <row r="59" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="B59" t="s">
         <v>0</v>
       </c>
@@ -7098,7 +7469,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:39">
+    <row r="60" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="B60" t="s">
         <v>1</v>
       </c>
@@ -7214,7 +7588,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:39">
+    <row r="61" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="C61" t="s">
         <v>0</v>
       </c>
@@ -7246,7 +7623,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:39">
+    <row r="62" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="B62" t="s">
         <v>1</v>
       </c>
@@ -7362,7 +7742,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:39">
+    <row r="63" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="B63" t="s">
         <v>0</v>
       </c>
@@ -7478,7 +7861,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:39">
+    <row r="64" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="B64" t="s">
         <v>0</v>
       </c>
@@ -7594,7 +7980,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:39">
+    <row r="65" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="B65" t="s">
         <v>1</v>
       </c>
@@ -7710,7 +8099,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:39">
+    <row r="66" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="B66" t="s">
         <v>1</v>
       </c>
@@ -7826,7 +8218,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:39">
+    <row r="67" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="B67" t="s">
         <v>2</v>
       </c>
@@ -7942,7 +8337,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:39">
+    <row r="68" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="B68" t="s">
         <v>0</v>
       </c>
@@ -8058,7 +8456,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:39">
+    <row r="69" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="B69" t="s">
         <v>0</v>
       </c>
@@ -8174,7 +8575,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:39">
+    <row r="70" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="B70" t="s">
         <v>0</v>
       </c>
@@ -8290,7 +8694,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:39">
+    <row r="71" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="B71" t="s">
         <v>0</v>
       </c>
@@ -8406,7 +8813,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:39">
+    <row r="72" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="B72" t="s">
         <v>0</v>
       </c>
@@ -8522,7 +8932,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:39">
+    <row r="73" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="B73" t="s">
         <v>0</v>
       </c>
@@ -8638,7 +9051,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:39">
+    <row r="74" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="B74" t="s">
         <v>0</v>
       </c>
@@ -8754,7 +9170,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:39">
+    <row r="75" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="B75" t="s">
         <v>0</v>
       </c>
@@ -8870,7 +9289,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:39">
+    <row r="76" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="B76" t="s">
         <v>0</v>
       </c>
@@ -8986,7 +9408,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:39">
+    <row r="77" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="B77" t="s">
         <v>1</v>
       </c>
@@ -9102,7 +9527,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:39">
+    <row r="78" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="B78" t="s">
         <v>1</v>
       </c>
@@ -9218,7 +9646,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:39">
+    <row r="79" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="B79" t="s">
         <v>0</v>
       </c>
@@ -9334,7 +9765,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:39">
+    <row r="80" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="B80" t="s">
         <v>0</v>
       </c>
@@ -9450,7 +9884,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:39">
+    <row r="81" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="B81" t="s">
         <v>0</v>
       </c>
@@ -9566,7 +10003,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:39">
+    <row r="82" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="B82" t="s">
         <v>0</v>
       </c>
@@ -9682,7 +10122,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:39">
+    <row r="83" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="B83" t="s">
         <v>0</v>
       </c>
@@ -9798,7 +10241,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:39">
+    <row r="84" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="B84" t="s">
         <v>0</v>
       </c>
@@ -9914,7 +10360,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:39">
+    <row r="85" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="B85" t="s">
         <v>0</v>
       </c>
@@ -10030,7 +10479,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:39">
+    <row r="86" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="B86" t="s">
         <v>0</v>
       </c>
@@ -10146,7 +10598,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:39">
+    <row r="87" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="B87" t="s">
         <v>0</v>
       </c>
@@ -10262,7 +10717,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:39">
+    <row r="88" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="B88" t="s">
         <v>0</v>
       </c>
@@ -10378,7 +10836,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:39">
+    <row r="89" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="B89" t="s">
         <v>0</v>
       </c>
@@ -10494,7 +10955,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:39">
+    <row r="90" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="B90" t="s">
         <v>0</v>
       </c>
@@ -10610,7 +11074,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:39">
+    <row r="91" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="B91" t="s">
         <v>0</v>
       </c>
@@ -10726,7 +11193,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:39">
+    <row r="92" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="B92" t="s">
         <v>0</v>
       </c>
@@ -10842,7 +11312,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:39">
+    <row r="93" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="B93" t="s">
         <v>0</v>
       </c>
@@ -10958,7 +11431,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:39">
+    <row r="94" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="B94" t="s">
         <v>0</v>
       </c>
@@ -11074,7 +11550,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:39">
+    <row r="95" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="B95" t="s">
         <v>2</v>
       </c>
@@ -11190,7 +11669,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:39">
+    <row r="96" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="B96" t="s">
         <v>0</v>
       </c>
@@ -11306,7 +11788,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:39">
+    <row r="97" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="B97" t="s">
         <v>0</v>
       </c>
@@ -11422,7 +11907,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:39">
+    <row r="98" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="B98" t="s">
         <v>1</v>
       </c>
@@ -11538,7 +12026,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:39">
+    <row r="99" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="B99" t="s">
         <v>1</v>
       </c>
@@ -11654,7 +12145,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:39">
+    <row r="100" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="B100" t="s">
         <v>1</v>
       </c>
@@ -11770,7 +12264,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:39">
+    <row r="101" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="B101" t="s">
         <v>0</v>
       </c>
@@ -11886,7 +12383,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:39">
+    <row r="102" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="B102" t="s">
         <v>0</v>
       </c>
@@ -12002,7 +12502,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:39">
+    <row r="103" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="B103" t="s">
         <v>2</v>
       </c>
@@ -12118,7 +12621,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:39">
+    <row r="104" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="B104" t="s">
         <v>0</v>
       </c>
@@ -12234,7 +12740,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:39">
+    <row r="105" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="B105" t="s">
         <v>2</v>
       </c>
@@ -12350,7 +12859,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:39">
+    <row r="106" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="B106" t="s">
         <v>0</v>
       </c>
@@ -12466,7 +12978,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:39">
+    <row r="107" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="B107" t="s">
         <v>0</v>
       </c>
@@ -12582,7 +13097,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:39">
+    <row r="108" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="B108" t="s">
         <v>0</v>
       </c>
@@ -12698,7 +13216,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:39">
+    <row r="109" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="B109" t="s">
         <v>1</v>
       </c>
@@ -12814,7 +13335,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:39">
+    <row r="110" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="B110" t="s">
         <v>1</v>
       </c>
@@ -12930,7 +13454,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:39">
+    <row r="111" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="B111" t="s">
         <v>0</v>
       </c>
@@ -13046,7 +13573,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="112" spans="1:39">
+    <row r="112" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="B112" t="s">
         <v>1</v>
       </c>
@@ -13162,7 +13692,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:39">
+    <row r="113" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="B113" t="s">
         <v>0</v>
       </c>
@@ -13278,7 +13811,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:39">
+    <row r="114" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="B114" t="s">
         <v>0</v>
       </c>
@@ -13394,7 +13930,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:39">
+    <row r="115" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="B115" t="s">
         <v>0</v>
       </c>
@@ -13510,7 +14049,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:39">
+    <row r="116" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="B116" t="s">
         <v>0</v>
       </c>
@@ -13626,7 +14168,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:39">
+    <row r="117" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="B117" t="s">
         <v>0</v>
       </c>
@@ -13742,7 +14287,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:39">
+    <row r="118" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="B118" t="s">
         <v>1</v>
       </c>
@@ -13858,7 +14406,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:39">
+    <row r="119" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="B119" t="s">
         <v>2</v>
       </c>
@@ -13974,7 +14525,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:39">
+    <row r="120" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="B120" t="s">
         <v>2</v>
       </c>
@@ -14090,7 +14644,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:39">
+    <row r="121" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="B121" t="s">
         <v>2</v>
       </c>
@@ -14206,7 +14763,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:39">
+    <row r="122" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="B122" t="s">
         <v>2</v>
       </c>
@@ -14322,7 +14882,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:39">
+    <row r="123" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="B123" t="s">
         <v>0</v>
       </c>
@@ -14438,7 +15001,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:39">
+    <row r="124" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="B124" t="s">
         <v>0</v>
       </c>
@@ -14554,7 +15120,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:39">
+    <row r="125" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="B125" t="s">
         <v>0</v>
       </c>
@@ -14670,7 +15239,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="126" spans="1:39">
+    <row r="126" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="B126" t="s">
         <v>0</v>
       </c>
@@ -14786,7 +15358,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:39">
+    <row r="127" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="B127" t="s">
         <v>0</v>
       </c>
@@ -14902,7 +15477,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:39">
+    <row r="128" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="B128" t="s">
         <v>0</v>
       </c>
@@ -15018,7 +15596,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:39">
+    <row r="129" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="B129" t="s">
         <v>1</v>
       </c>
@@ -15134,7 +15715,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:39">
+    <row r="130" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="B130" t="s">
         <v>0</v>
       </c>
@@ -15250,7 +15834,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:39">
+    <row r="131" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="B131" t="s">
         <v>0</v>
       </c>
@@ -15366,7 +15953,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:39">
+    <row r="132" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="B132" t="s">
         <v>1</v>
       </c>
@@ -15482,7 +16072,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:39">
+    <row r="133" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A133" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="B133" t="s">
         <v>1</v>
       </c>
@@ -15598,7 +16191,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:39">
+    <row r="134" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A134" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="B134" t="s">
         <v>0</v>
       </c>
@@ -15714,7 +16310,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:39">
+    <row r="135" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A135" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="B135" t="s">
         <v>0</v>
       </c>
@@ -15830,7 +16429,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:39">
+    <row r="136" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A136" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="B136" t="s">
         <v>0</v>
       </c>
@@ -15946,7 +16548,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:39">
+    <row r="137" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A137" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="B137" t="s">
         <v>0</v>
       </c>
@@ -16062,7 +16667,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:39">
+    <row r="138" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A138" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="B138" t="s">
         <v>0</v>
       </c>
@@ -16178,7 +16786,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:39">
+    <row r="139" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A139" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="B139" t="s">
         <v>0</v>
       </c>
@@ -16294,7 +16905,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:39">
+    <row r="140" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A140" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="B140" t="s">
         <v>0</v>
       </c>
@@ -16410,7 +17024,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:39">
+    <row r="141" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A141" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="B141" t="s">
         <v>0</v>
       </c>
@@ -16526,7 +17143,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:39">
+    <row r="142" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A142" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="B142" t="s">
         <v>0</v>
       </c>
@@ -16642,7 +17262,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:39">
+    <row r="143" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A143" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="B143" t="s">
         <v>0</v>
       </c>
@@ -16758,7 +17381,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:39">
+    <row r="144" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A144" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="B144" t="s">
         <v>0</v>
       </c>
@@ -16874,7 +17500,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="145" spans="1:39">
+    <row r="145" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A145" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="B145" t="s">
         <v>0</v>
       </c>
@@ -16990,7 +17619,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:39">
+    <row r="146" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A146" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="B146" t="s">
         <v>0</v>
       </c>
@@ -17106,7 +17738,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:39">
+    <row r="147" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A147" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="B147" t="s">
         <v>0</v>
       </c>
@@ -17222,7 +17857,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:39">
+    <row r="148" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A148" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="B148" t="s">
         <v>0</v>
       </c>
@@ -17338,7 +17976,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:39">
+    <row r="149" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A149" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="B149" t="s">
         <v>0</v>
       </c>
@@ -17454,7 +18095,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:39">
+    <row r="150" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A150" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="B150" t="s">
         <v>0</v>
       </c>
@@ -17570,7 +18214,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:39">
+    <row r="151" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A151" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="B151" t="s">
         <v>0</v>
       </c>
@@ -17686,7 +18333,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:39">
+    <row r="152" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A152" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="B152" t="s">
         <v>0</v>
       </c>
@@ -17802,7 +18452,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:39">
+    <row r="153" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A153" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="B153" t="s">
         <v>0</v>
       </c>
@@ -17918,7 +18571,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:39">
+    <row r="154" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A154" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="B154" t="s">
         <v>0</v>
       </c>
@@ -18034,7 +18690,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:39">
+    <row r="155" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A155" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="B155" t="s">
         <v>2</v>
       </c>
@@ -18150,7 +18809,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:39">
+    <row r="156" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A156" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="B156" t="s">
         <v>0</v>
       </c>
@@ -18266,7 +18928,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:39">
+    <row r="157" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A157" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="B157" t="s">
         <v>0</v>
       </c>
@@ -18382,7 +19047,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:39">
+    <row r="158" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A158" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="B158" t="s">
         <v>0</v>
       </c>
@@ -18498,7 +19166,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:39">
+    <row r="159" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A159" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="B159" t="s">
         <v>0</v>
       </c>
@@ -18614,7 +19285,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:39">
+    <row r="160" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A160" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="B160" t="s">
         <v>0</v>
       </c>
@@ -18730,7 +19404,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:39">
+    <row r="161" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A161" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="B161" t="s">
         <v>0</v>
       </c>
@@ -18846,7 +19523,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:39">
+    <row r="162" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A162" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="B162" t="s">
         <v>0</v>
       </c>
@@ -18962,7 +19642,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:39">
+    <row r="163" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A163" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="B163" t="s">
         <v>1</v>
       </c>
@@ -19078,7 +19761,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:39">
+    <row r="164" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A164" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="B164" t="s">
         <v>0</v>
       </c>
@@ -19194,7 +19880,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:39">
+    <row r="165" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A165" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="B165" t="s">
         <v>0</v>
       </c>
@@ -19310,7 +19999,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:39">
+    <row r="166" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A166" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="B166" t="s">
         <v>0</v>
       </c>
@@ -19426,7 +20118,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:39">
+    <row r="167" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A167" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="B167" t="s">
         <v>0</v>
       </c>
@@ -19542,7 +20237,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:39">
+    <row r="168" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A168" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="B168" t="s">
         <v>0</v>
       </c>
@@ -19658,7 +20356,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:39">
+    <row r="169" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A169" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="B169" t="s">
         <v>0</v>
       </c>
@@ -19774,7 +20475,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:39">
+    <row r="170" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A170" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="B170" t="s">
         <v>0</v>
       </c>
@@ -19890,7 +20594,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:39">
+    <row r="171" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A171" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="B171" t="s">
         <v>1</v>
       </c>
@@ -20006,7 +20713,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:39">
+    <row r="172" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A172" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="B172" t="s">
         <v>0</v>
       </c>
@@ -20122,7 +20832,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:39">
+    <row r="173" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A173" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="B173" t="s">
         <v>0</v>
       </c>
@@ -20238,7 +20951,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:39">
+    <row r="174" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A174" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="B174" t="s">
         <v>0</v>
       </c>
@@ -20354,7 +21070,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:39">
+    <row r="175" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A175" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="B175" t="s">
         <v>0</v>
       </c>
@@ -20470,7 +21189,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:39">
+    <row r="176" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A176" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="B176" t="s">
         <v>0</v>
       </c>
@@ -20586,7 +21308,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:39">
+    <row r="177" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A177" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="B177" t="s">
         <v>0</v>
       </c>
@@ -20702,7 +21427,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:39">
+    <row r="178" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A178" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="B178" t="s">
         <v>0</v>
       </c>
@@ -20818,7 +21546,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:39">
+    <row r="179" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A179" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="B179" t="s">
         <v>0</v>
       </c>
@@ -20934,7 +21665,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:39">
+    <row r="180" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A180" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="B180" t="s">
         <v>0</v>
       </c>
@@ -21050,7 +21784,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:39">
+    <row r="181" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A181" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="B181" t="s">
         <v>0</v>
       </c>
@@ -21166,7 +21903,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:39">
+    <row r="182" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A182" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="B182" t="s">
         <v>0</v>
       </c>
@@ -21282,7 +22022,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:39">
+    <row r="183" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A183" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="B183" t="s">
         <v>0</v>
       </c>
@@ -21398,7 +22141,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:39">
+    <row r="184" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A184" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="B184" t="s">
         <v>0</v>
       </c>
@@ -21514,7 +22260,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:39">
+    <row r="185" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A185" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="B185" t="s">
         <v>0</v>
       </c>
@@ -21630,7 +22379,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:39">
+    <row r="186" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A186" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="B186" t="s">
         <v>0</v>
       </c>
@@ -21746,7 +22498,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:39">
+    <row r="187" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A187" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="B187" t="s">
         <v>0</v>
       </c>
@@ -21862,7 +22617,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:39">
+    <row r="188" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A188" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="B188" t="s">
         <v>0</v>
       </c>
@@ -21978,7 +22736,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:39">
+    <row r="189" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A189" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="B189" t="s">
         <v>0</v>
       </c>
@@ -22094,7 +22855,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:39">
+    <row r="190" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A190" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="B190" t="s">
         <v>0</v>
       </c>
@@ -22210,7 +22974,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:39">
+    <row r="191" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A191" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="B191" t="s">
         <v>0</v>
       </c>
@@ -22326,7 +23093,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:39">
+    <row r="192" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A192" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="B192" t="s">
         <v>0</v>
       </c>
@@ -22442,7 +23212,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:39">
+    <row r="193" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A193" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="B193" t="s">
         <v>0</v>
       </c>
@@ -22558,7 +23331,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:39">
+    <row r="194" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A194" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="B194" t="s">
         <v>0</v>
       </c>
@@ -22674,7 +23450,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:39">
+    <row r="195" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A195" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="B195" t="s">
         <v>0</v>
       </c>
@@ -22790,7 +23569,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:39">
+    <row r="196" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A196" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="B196" t="s">
         <v>0</v>
       </c>
@@ -22906,7 +23688,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:39">
+    <row r="197" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A197" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="B197" t="s">
         <v>0</v>
       </c>
@@ -23022,7 +23807,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:39">
+    <row r="198" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A198" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="B198" t="s">
         <v>0</v>
       </c>
@@ -23138,7 +23926,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:39">
+    <row r="199" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A199" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="B199" t="s">
         <v>0</v>
       </c>
@@ -23254,7 +24045,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:39">
+    <row r="200" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A200" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="B200" t="s">
         <v>0</v>
       </c>
@@ -23370,7 +24164,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:39">
+    <row r="201" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A201" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="B201" t="s">
         <v>0</v>
       </c>
@@ -23486,7 +24283,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:39">
+    <row r="202" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A202" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="B202" t="s">
         <v>1</v>
       </c>
@@ -23602,7 +24402,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:39">
+    <row r="203" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A203" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="B203" t="s">
         <v>1</v>
       </c>
@@ -23718,7 +24521,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:39">
+    <row r="204" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A204" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="B204" t="s">
         <v>0</v>
       </c>
@@ -23834,7 +24640,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:39">
+    <row r="205" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A205" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="B205" t="s">
         <v>0</v>
       </c>
@@ -23950,7 +24759,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:39">
+    <row r="206" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A206" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="B206" t="s">
         <v>0</v>
       </c>
@@ -24066,7 +24878,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:39">
+    <row r="207" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A207" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="B207" t="s">
         <v>0</v>
       </c>
@@ -24182,7 +24997,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:39">
+    <row r="208" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A208" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="B208" t="s">
         <v>0</v>
       </c>
@@ -24298,7 +25116,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:39">
+    <row r="209" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A209" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="B209" t="s">
         <v>0</v>
       </c>
@@ -24414,7 +25235,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:39">
+    <row r="210" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A210" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="B210" t="s">
         <v>0</v>
       </c>
@@ -24530,7 +25354,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:39">
+    <row r="211" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A211" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="B211" t="s">
         <v>0</v>
       </c>
@@ -24646,7 +25473,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:39">
+    <row r="212" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A212" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="B212" t="s">
         <v>0</v>
       </c>
@@ -24762,7 +25592,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="213" spans="1:39">
+    <row r="213" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A213" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="B213" t="s">
         <v>0</v>
       </c>
@@ -24878,7 +25711,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="214" spans="1:39">
+    <row r="214" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A214" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="B214" t="s">
         <v>0</v>
       </c>
@@ -24994,7 +25830,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:39">
+    <row r="215" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A215" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="B215" t="s">
         <v>0</v>
       </c>
@@ -25110,7 +25949,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:39">
+    <row r="216" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A216" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="B216" t="s">
         <v>0</v>
       </c>
@@ -25226,7 +26068,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:39">
+    <row r="217" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A217" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="B217" t="s">
         <v>0</v>
       </c>
@@ -25342,7 +26187,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:39">
+    <row r="218" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A218" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="B218" t="s">
         <v>0</v>
       </c>
@@ -25458,7 +26306,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:39">
+    <row r="219" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A219" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="B219" t="s">
         <v>0</v>
       </c>
@@ -25574,7 +26425,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:39">
+    <row r="220" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A220" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="B220" t="s">
         <v>0</v>
       </c>
@@ -25690,7 +26544,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:39">
+    <row r="221" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A221" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="B221" t="s">
         <v>0</v>
       </c>
@@ -25806,7 +26663,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:39">
+    <row r="222" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A222" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="B222" t="s">
         <v>0</v>
       </c>
@@ -25922,7 +26782,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:39">
+    <row r="223" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A223" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="B223" t="s">
         <v>0</v>
       </c>
@@ -26038,7 +26901,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="224" spans="1:39">
+    <row r="224" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A224" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="B224" t="s">
         <v>0</v>
       </c>
@@ -26154,7 +27020,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:39">
+    <row r="225" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A225" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="B225" t="s">
         <v>0</v>
       </c>
@@ -26270,7 +27139,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:39">
+    <row r="226" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A226" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="B226" t="s">
         <v>0</v>
       </c>
@@ -26386,7 +27258,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:39">
+    <row r="227" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A227" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="B227" t="s">
         <v>0</v>
       </c>
@@ -26502,7 +27377,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:39">
+    <row r="228" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A228" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="B228" t="s">
         <v>0</v>
       </c>
@@ -26618,7 +27496,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:39">
+    <row r="229" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A229" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="B229" t="s">
         <v>0</v>
       </c>
@@ -26734,7 +27615,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:39">
+    <row r="230" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A230" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="B230" t="s">
         <v>0</v>
       </c>
@@ -26850,7 +27734,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:39">
+    <row r="231" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A231" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="B231" t="s">
         <v>0</v>
       </c>
@@ -26966,7 +27853,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:39">
+    <row r="232" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A232" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="B232" t="s">
         <v>0</v>
       </c>
@@ -27082,7 +27972,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:39">
+    <row r="233" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A233" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="B233" t="s">
         <v>0</v>
       </c>
@@ -27198,7 +28091,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:39">
+    <row r="234" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A234" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="B234" t="s">
         <v>0</v>
       </c>
@@ -27314,7 +28210,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:39">
+    <row r="235" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A235" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="B235" t="s">
         <v>0</v>
       </c>
@@ -27430,7 +28329,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:39">
+    <row r="236" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A236" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="B236" t="s">
         <v>0</v>
       </c>
@@ -27546,7 +28448,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:39">
+    <row r="237" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A237" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="B237" t="s">
         <v>0</v>
       </c>
@@ -27662,7 +28567,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:39">
+    <row r="238" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A238" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="B238" t="s">
         <v>0</v>
       </c>
@@ -27778,7 +28686,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:39">
+    <row r="239" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A239" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="B239" t="s">
         <v>0</v>
       </c>
@@ -27894,7 +28805,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:39">
+    <row r="240" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A240" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="B240" t="s">
         <v>0</v>
       </c>
@@ -28010,7 +28924,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:39">
+    <row r="241" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A241" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="B241" t="s">
         <v>0</v>
       </c>
@@ -28126,7 +29043,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:39">
+    <row r="242" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A242" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="B242" t="s">
         <v>0</v>
       </c>
@@ -28242,7 +29162,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:39">
+    <row r="243" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A243" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="B243" t="s">
         <v>0</v>
       </c>
@@ -28358,7 +29281,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:39">
+    <row r="244" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A244" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="B244" t="s">
         <v>0</v>
       </c>
@@ -28474,7 +29400,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:39">
+    <row r="245" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A245" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="B245" t="s">
         <v>0</v>
       </c>
@@ -28590,7 +29519,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:39">
+    <row r="246" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A246" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="B246" t="s">
         <v>0</v>
       </c>
@@ -28706,7 +29638,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:39">
+    <row r="247" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A247" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="B247" t="s">
         <v>0</v>
       </c>
@@ -28822,7 +29757,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:39">
+    <row r="248" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A248" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="B248" t="s">
         <v>0</v>
       </c>
@@ -28938,7 +29876,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:39">
+    <row r="249" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A249" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="B249" t="s">
         <v>0</v>
       </c>
@@ -29054,7 +29995,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:39">
+    <row r="250" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A250" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="B250" t="s">
         <v>0</v>
       </c>
@@ -29170,7 +30114,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:39">
+    <row r="251" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A251" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="B251" t="s">
         <v>0</v>
       </c>
@@ -29286,7 +30233,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:39">
+    <row r="252" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A252" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="B252" t="s">
         <v>0</v>
       </c>
@@ -29402,7 +30352,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:39">
+    <row r="253" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A253" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="B253" t="s">
         <v>0</v>
       </c>
@@ -29518,7 +30471,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:39">
+    <row r="254" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A254" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="B254" t="s">
         <v>0</v>
       </c>
@@ -29634,7 +30590,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:39">
+    <row r="255" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A255" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="B255" t="s">
         <v>0</v>
       </c>
@@ -29750,7 +30709,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:39">
+    <row r="256" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A256" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="B256" t="s">
         <v>2</v>
       </c>
@@ -29866,7 +30828,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:39">
+    <row r="257" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A257" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="B257" t="s">
         <v>0</v>
       </c>
@@ -29982,7 +30947,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:39">
+    <row r="258" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A258" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="B258" t="s">
         <v>0</v>
       </c>
@@ -30098,7 +31066,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:39">
+    <row r="259" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A259" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="B259" t="s">
         <v>0</v>
       </c>
@@ -30214,7 +31185,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:39">
+    <row r="260" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A260" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="B260" t="s">
         <v>0</v>
       </c>
@@ -30330,7 +31304,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:39">
+    <row r="261" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A261" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="B261" t="s">
         <v>0</v>
       </c>
@@ -30446,7 +31423,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:39">
+    <row r="262" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A262" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="B262" t="s">
         <v>0</v>
       </c>
@@ -30562,7 +31542,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:39">
+    <row r="263" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A263" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="B263" t="s">
         <v>0</v>
       </c>
@@ -30678,7 +31661,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:39">
+    <row r="264" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A264" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="B264" t="s">
         <v>0</v>
       </c>
@@ -30794,7 +31780,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:39">
+    <row r="265" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A265" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="B265" t="s">
         <v>1</v>
       </c>
@@ -30910,7 +31899,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:39">
+    <row r="266" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A266" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="B266" t="s">
         <v>1</v>
       </c>
@@ -31026,7 +32018,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:39">
+    <row r="267" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A267" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="B267" t="s">
         <v>0</v>
       </c>
@@ -31142,7 +32137,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:39">
+    <row r="268" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A268" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="B268" t="s">
         <v>0</v>
       </c>
@@ -31258,7 +32256,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:39">
+    <row r="269" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A269" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="B269" t="s">
         <v>0</v>
       </c>
@@ -31374,7 +32375,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:39">
+    <row r="270" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A270" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="B270" t="s">
         <v>0</v>
       </c>
@@ -31490,7 +32494,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:39">
+    <row r="271" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A271" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="B271" t="s">
         <v>0</v>
       </c>
@@ -31606,7 +32613,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:39">
+    <row r="272" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A272" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="B272" t="s">
         <v>1</v>
       </c>
@@ -31722,7 +32732,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:39">
+    <row r="273" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A273" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="B273" t="s">
         <v>1</v>
       </c>
@@ -31838,7 +32851,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:39">
+    <row r="274" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A274" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="B274" t="s">
         <v>0</v>
       </c>
@@ -31954,7 +32970,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:39">
+    <row r="275" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A275" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="B275" t="s">
         <v>0</v>
       </c>
@@ -32070,7 +33089,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:39">
+    <row r="276" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A276" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="B276" t="s">
         <v>0</v>
       </c>
@@ -32186,7 +33208,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="277" spans="1:39">
+    <row r="277" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A277" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="B277" t="s">
         <v>1</v>
       </c>
@@ -32302,7 +33327,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="278" spans="1:39">
+    <row r="278" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A278" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="B278" t="s">
         <v>0</v>
       </c>
@@ -32418,7 +33446,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="279" spans="1:39">
+    <row r="279" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A279" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="B279" t="s">
         <v>0</v>
       </c>
@@ -32534,7 +33565,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:39">
+    <row r="280" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A280" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="B280" t="s">
         <v>2</v>
       </c>
@@ -32650,7 +33684,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:39">
+    <row r="281" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A281" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="B281" t="s">
         <v>0</v>
       </c>
@@ -32766,7 +33803,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:39">
+    <row r="282" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A282" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="B282" t="s">
         <v>1</v>
       </c>
@@ -32882,7 +33922,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:39">
+    <row r="283" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A283" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="B283" t="s">
         <v>1</v>
       </c>
@@ -32998,7 +34041,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:39">
+    <row r="284" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A284" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="B284" t="s">
         <v>1</v>
       </c>
@@ -33114,7 +34160,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:39">
+    <row r="285" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A285" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="B285" t="s">
         <v>0</v>
       </c>
@@ -33230,7 +34279,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:39">
+    <row r="286" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A286" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="B286" t="s">
         <v>0</v>
       </c>
@@ -33346,7 +34398,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:39">
+    <row r="287" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A287" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="B287" t="s">
         <v>0</v>
       </c>
@@ -33462,7 +34517,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:39">
+    <row r="288" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A288" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="B288" t="s">
         <v>0</v>
       </c>
@@ -33578,7 +34636,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:39">
+    <row r="289" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A289" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="B289" t="s">
         <v>0</v>
       </c>
@@ -33694,7 +34755,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="290" spans="1:39">
+    <row r="290" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A290" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="B290" t="s">
         <v>0</v>
       </c>
@@ -33810,7 +34874,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:39">
+    <row r="291" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A291" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="B291" t="s">
         <v>1</v>
       </c>
@@ -33926,7 +34993,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:39">
+    <row r="292" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A292" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="B292" t="s">
         <v>1</v>
       </c>
@@ -34042,7 +35112,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:39">
+    <row r="293" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A293" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="B293" t="s">
         <v>1</v>
       </c>
@@ -34158,7 +35231,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:39">
+    <row r="294" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A294" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="B294" t="s">
         <v>0</v>
       </c>
@@ -34274,7 +35350,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:39">
+    <row r="295" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A295" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="B295" t="s">
         <v>0</v>
       </c>
@@ -34390,7 +35469,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:39">
+    <row r="296" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A296" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="B296" t="s">
         <v>2</v>
       </c>
@@ -34506,7 +35588,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:39">
+    <row r="297" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A297" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="B297" t="s">
         <v>2</v>
       </c>
@@ -34622,7 +35707,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:39">
+    <row r="298" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A298" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="B298" t="s">
         <v>0</v>
       </c>
@@ -34738,7 +35826,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:39">
+    <row r="299" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A299" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="B299" t="s">
         <v>0</v>
       </c>
@@ -34854,7 +35945,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:39">
+    <row r="300" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A300" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="B300" t="s">
         <v>1</v>
       </c>
@@ -34970,7 +36064,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:39">
+    <row r="301" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A301" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="B301" t="s">
         <v>0</v>
       </c>
@@ -35086,7 +36183,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:39">
+    <row r="302" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A302" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="B302" t="s">
         <v>0</v>
       </c>
@@ -35202,7 +36302,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="303" spans="1:39">
+    <row r="303" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A303" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="B303" t="s">
         <v>0</v>
       </c>
@@ -35318,7 +36421,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="304" spans="1:39">
+    <row r="304" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A304" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="B304" t="s">
         <v>0</v>
       </c>
@@ -35434,7 +36540,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:39">
+    <row r="305" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A305" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="B305" t="s">
         <v>2</v>
       </c>
@@ -35550,7 +36659,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:39">
+    <row r="306" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A306" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="B306" t="s">
         <v>0</v>
       </c>
@@ -35666,7 +36778,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:39">
+    <row r="307" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A307" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="B307" t="s">
         <v>0</v>
       </c>
@@ -35782,7 +36897,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:39">
+    <row r="308" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A308" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="B308" t="s">
         <v>0</v>
       </c>
@@ -35898,7 +37016,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="1:39">
+    <row r="309" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A309" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="B309" t="s">
         <v>0</v>
       </c>
@@ -36014,7 +37135,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="310" spans="1:39">
+    <row r="310" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A310" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="B310" t="s">
         <v>0</v>
       </c>
@@ -36130,7 +37254,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="311" spans="1:39">
+    <row r="311" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A311" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="B311" t="s">
         <v>0</v>
       </c>
@@ -36246,7 +37373,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:39">
+    <row r="312" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A312" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="B312" t="s">
         <v>0</v>
       </c>
@@ -36362,7 +37492,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:39">
+    <row r="313" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A313" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="B313" t="s">
         <v>0</v>
       </c>
@@ -36478,7 +37611,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:39">
+    <row r="314" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A314" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="B314" t="s">
         <v>0</v>
       </c>
@@ -36594,7 +37730,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="315" spans="1:39">
+    <row r="315" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A315" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="B315" t="s">
         <v>1</v>
       </c>
@@ -36710,7 +37849,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="316" spans="1:39">
+    <row r="316" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A316" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="B316" t="s">
         <v>2</v>
       </c>
@@ -36826,7 +37968,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:39">
+    <row r="317" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A317" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="B317" t="s">
         <v>1</v>
       </c>
@@ -36942,7 +38087,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:39">
+    <row r="318" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A318" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="B318" t="s">
         <v>1</v>
       </c>
@@ -37058,7 +38206,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:39">
+    <row r="319" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A319" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="B319" t="s">
         <v>1</v>
       </c>
@@ -37174,7 +38325,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="1:39">
+    <row r="320" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A320" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="B320" t="s">
         <v>0</v>
       </c>
@@ -37290,7 +38444,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:39">
+    <row r="321" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A321" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="B321" t="s">
         <v>0</v>
       </c>
@@ -37406,7 +38563,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:39">
+    <row r="322" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A322" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="B322" t="s">
         <v>1</v>
       </c>
@@ -37522,7 +38682,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:39">
+    <row r="323" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A323" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="B323" t="s">
         <v>2</v>
       </c>
@@ -37638,7 +38801,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:39">
+    <row r="324" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A324" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="B324" t="s">
         <v>2</v>
       </c>
@@ -37754,7 +38920,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:39">
+    <row r="325" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A325" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="B325" t="s">
         <v>3</v>
       </c>
@@ -37870,7 +39039,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:39">
+    <row r="326" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A326" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="B326" t="s">
         <v>1</v>
       </c>
@@ -37986,7 +39158,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="327" spans="1:39">
+    <row r="327" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A327" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="B327" t="s">
         <v>2</v>
       </c>
@@ -38102,7 +39277,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="328" spans="1:39">
+    <row r="328" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A328" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="B328" t="s">
         <v>1</v>
       </c>
@@ -38218,7 +39396,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="329" spans="1:39">
+    <row r="329" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A329" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="B329" t="s">
         <v>2</v>
       </c>
@@ -38334,7 +39515,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="330" spans="1:39">
+    <row r="330" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A330" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="B330" t="s">
         <v>2</v>
       </c>
@@ -38450,7 +39634,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="331" spans="1:39">
+    <row r="331" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A331" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="B331" t="s">
         <v>2</v>
       </c>
@@ -38566,7 +39753,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:39">
+    <row r="332" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A332" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="B332" t="s">
         <v>0</v>
       </c>
@@ -38682,7 +39872,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="333" spans="1:39">
+    <row r="333" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A333" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="B333" t="s">
         <v>0</v>
       </c>
@@ -38798,7 +39991,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:39">
+    <row r="334" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A334" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="B334" t="s">
         <v>0</v>
       </c>
@@ -38914,7 +40110,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="335" spans="1:39">
+    <row r="335" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A335" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="B335" t="s">
         <v>0</v>
       </c>
@@ -39030,7 +40229,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:39">
+    <row r="336" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A336" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="B336" t="s">
         <v>0</v>
       </c>
@@ -39146,7 +40348,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:39">
+    <row r="337" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A337" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="B337" t="s">
         <v>0</v>
       </c>
@@ -39262,7 +40467,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:39">
+    <row r="338" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A338" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="B338" t="s">
         <v>1</v>
       </c>
@@ -39378,7 +40586,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:39">
+    <row r="339" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A339" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="B339" t="s">
         <v>2</v>
       </c>
@@ -39494,7 +40705,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:39">
+    <row r="340" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A340" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="B340" t="s">
         <v>1</v>
       </c>
@@ -39610,7 +40824,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="341" spans="1:39">
+    <row r="341" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A341" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="B341" t="s">
         <v>0</v>
       </c>
@@ -39726,7 +40943,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="1:39">
+    <row r="342" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A342" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="B342" t="s">
         <v>0</v>
       </c>
@@ -39842,7 +41062,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="343" spans="1:39">
+    <row r="343" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A343" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="B343" t="s">
         <v>0</v>
       </c>
@@ -39958,7 +41181,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="344" spans="1:39">
+    <row r="344" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A344" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="B344" t="s">
         <v>0</v>
       </c>
@@ -40074,7 +41300,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:39">
+    <row r="345" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A345" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="B345" t="s">
         <v>1</v>
       </c>
@@ -40190,7 +41419,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="346" spans="1:39">
+    <row r="346" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A346" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="B346" t="s">
         <v>1</v>
       </c>
@@ -40306,7 +41538,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:39">
+    <row r="347" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A347" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="B347" t="s">
         <v>1</v>
       </c>
@@ -40422,7 +41657,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:39">
+    <row r="348" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A348" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="B348" t="s">
         <v>0</v>
       </c>
@@ -40538,7 +41776,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:39">
+    <row r="349" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A349" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="B349" t="s">
         <v>0</v>
       </c>
@@ -40654,7 +41895,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:39">
+    <row r="350" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A350" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="B350" t="s">
         <v>0</v>
       </c>
@@ -40770,7 +42014,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:39">
+    <row r="351" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A351" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="B351" t="s">
         <v>0</v>
       </c>
@@ -40886,7 +42133,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:39">
+    <row r="352" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A352" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="B352" t="s">
         <v>0</v>
       </c>
@@ -41002,7 +42252,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="353" spans="1:39">
+    <row r="353" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A353" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="B353" t="s">
         <v>0</v>
       </c>
@@ -41118,7 +42371,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:39">
+    <row r="354" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A354" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="B354" t="s">
         <v>0</v>
       </c>
@@ -41234,7 +42490,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:39">
+    <row r="355" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A355" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="B355" t="s">
         <v>0</v>
       </c>
@@ -41350,7 +42609,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="356" spans="1:39">
+    <row r="356" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A356" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="B356" t="s">
         <v>0</v>
       </c>
@@ -41466,7 +42728,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:39">
+    <row r="357" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A357" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="B357" t="s">
         <v>0</v>
       </c>
@@ -41582,7 +42847,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="1:39">
+    <row r="358" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A358" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="B358" t="s">
         <v>0</v>
       </c>
@@ -41698,7 +42966,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="359" spans="1:39">
+    <row r="359" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A359" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="B359" t="s">
         <v>0</v>
       </c>
@@ -41814,7 +43085,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="360" spans="1:39">
+    <row r="360" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A360" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="B360" t="s">
         <v>0</v>
       </c>
@@ -41930,7 +43204,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="361" spans="1:39">
+    <row r="361" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A361" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="B361" t="s">
         <v>0</v>
       </c>
@@ -42046,7 +43323,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:39">
+    <row r="362" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A362" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="B362" t="s">
         <v>0</v>
       </c>
@@ -42162,7 +43442,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:39">
+    <row r="363" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A363" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="B363" t="s">
         <v>0</v>
       </c>
@@ -42278,7 +43561,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:39">
+    <row r="364" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A364" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="B364" t="s">
         <v>0</v>
       </c>
@@ -42394,7 +43680,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="365" spans="1:39">
+    <row r="365" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A365" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="B365" t="s">
         <v>0</v>
       </c>
@@ -42510,7 +43799,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:39">
+    <row r="366" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A366" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="B366" t="s">
         <v>0</v>
       </c>
@@ -42626,7 +43918,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:39">
+    <row r="367" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A367" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="B367" t="s">
         <v>0</v>
       </c>
@@ -42743,6 +44038,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/python/Statistics/Results/RST_classification_NCEP_1979-2016.xlsx
+++ b/python/Statistics/Results/RST_classification_NCEP_1979-2016.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hatzv\Documents\Geography\RSTs\python\Statistics\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D0802641-BD06-40A4-8F7A-9FB3E2099009}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5AC7542-3EEF-40B0-BD08-F6E884DC7604}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14246" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14249" uniqueCount="16">
   <si>
     <t>No RST</t>
   </si>
@@ -430,21 +430,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AN367"/>
+  <dimension ref="A1:AQ367"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AN1" sqref="AN1"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="AP9" sqref="AP9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1">
         <v>1979</v>
       </c>
       <c r="C1" s="1">
-        <f t="shared" ref="B1:AN1" si="0">B1+1</f>
+        <f t="shared" ref="C1:AM1" si="0">B1+1</f>
         <v>1980</v>
       </c>
       <c r="D1" s="1">
@@ -593,7 +593,7 @@
       </c>
       <c r="AN1" s="1"/>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -711,8 +711,17 @@
       <c r="AM2" t="s">
         <v>0</v>
       </c>
+      <c r="AO2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -830,8 +839,20 @@
       <c r="AM3" t="s">
         <v>0</v>
       </c>
+      <c r="AO3">
+        <f>COUNTIF($B$2:$AM$367, "East")</f>
+        <v>2522</v>
+      </c>
+      <c r="AP3">
+        <f>COUNTIF($B$2:$AM$367, "Central")</f>
+        <v>725</v>
+      </c>
+      <c r="AQ3">
+        <f>COUNTIF($B$2:$AM$367, "West")</f>
+        <v>170</v>
+      </c>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -949,8 +970,20 @@
       <c r="AM4" t="s">
         <v>0</v>
       </c>
+      <c r="AO4">
+        <f>AO3/SUM($AO$3:$AQ$3)*100</f>
+        <v>73.807433421129645</v>
+      </c>
+      <c r="AP4">
+        <f t="shared" ref="AP4:AQ4" si="1">AP3/SUM($AO$3:$AQ$3)*100</f>
+        <v>21.217442200760903</v>
+      </c>
+      <c r="AQ4">
+        <f t="shared" si="1"/>
+        <v>4.9751243781094532</v>
+      </c>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -1069,7 +1102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1188,7 +1221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -1307,7 +1340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -1426,7 +1459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
@@ -1545,7 +1578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>4</v>
       </c>
@@ -1664,7 +1697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>4</v>
       </c>
@@ -1783,7 +1816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>4</v>
       </c>
@@ -1902,7 +1935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>4</v>
       </c>
@@ -2021,7 +2054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>4</v>
       </c>
@@ -2140,7 +2173,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>4</v>
       </c>
@@ -2259,7 +2292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>4</v>
       </c>
@@ -2378,7 +2411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>4</v>
       </c>
@@ -2497,7 +2530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>4</v>
       </c>
@@ -2616,7 +2649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>4</v>
       </c>
@@ -2735,7 +2768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>4</v>
       </c>
@@ -2854,7 +2887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>4</v>
       </c>
@@ -2973,7 +3006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>4</v>
       </c>
@@ -3092,7 +3125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>4</v>
       </c>
@@ -3211,7 +3244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>4</v>
       </c>
@@ -3330,7 +3363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>4</v>
       </c>
@@ -3449,7 +3482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>4</v>
       </c>
@@ -3568,7 +3601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>4</v>
       </c>
@@ -3687,7 +3720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>4</v>
       </c>
@@ -3806,7 +3839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>4</v>
       </c>
@@ -3925,7 +3958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>4</v>
       </c>
@@ -4044,7 +4077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>4</v>
       </c>
@@ -4163,7 +4196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:39" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="32" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>4</v>
       </c>
@@ -4282,7 +4315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>5</v>
       </c>
@@ -4401,7 +4434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>5</v>
       </c>
@@ -4520,7 +4553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>5</v>
       </c>
@@ -4639,7 +4672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>5</v>
       </c>
@@ -4758,7 +4791,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>5</v>
       </c>
@@ -4877,7 +4910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>5</v>
       </c>
@@ -4996,7 +5029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>5</v>
       </c>
@@ -5115,7 +5148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>5</v>
       </c>
@@ -5234,7 +5267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>5</v>
       </c>
@@ -5353,7 +5386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>5</v>
       </c>
@@ -5472,7 +5505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>5</v>
       </c>
@@ -5591,7 +5624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>5</v>
       </c>
@@ -5710,7 +5743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>5</v>
       </c>
@@ -5829,7 +5862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>5</v>
       </c>
@@ -5948,7 +5981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>5</v>
       </c>
@@ -6067,7 +6100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>5</v>
       </c>
@@ -6186,7 +6219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>5</v>
       </c>
@@ -6305,7 +6338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>5</v>
       </c>
@@ -6424,7 +6457,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>5</v>
       </c>
@@ -6543,7 +6576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>5</v>
       </c>
@@ -6662,7 +6695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>5</v>
       </c>
@@ -6781,7 +6814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>5</v>
       </c>
@@ -6900,7 +6933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>5</v>
       </c>
@@ -7019,7 +7052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>5</v>
       </c>
@@ -7138,7 +7171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>5</v>
       </c>
@@ -7257,7 +7290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>5</v>
       </c>
@@ -7376,7 +7409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>5</v>
       </c>
@@ -7495,7 +7528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>5</v>
       </c>
@@ -7614,7 +7647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:39" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="61" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>5</v>
       </c>
@@ -7649,7 +7682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>6</v>
       </c>
@@ -7768,7 +7801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>6</v>
       </c>
@@ -7887,7 +7920,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>6</v>
       </c>
@@ -8006,7 +8039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>6</v>
       </c>
@@ -8125,7 +8158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>6</v>
       </c>
@@ -8244,7 +8277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>6</v>
       </c>
@@ -8363,7 +8396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>6</v>
       </c>
@@ -8482,7 +8515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>6</v>
       </c>
@@ -8601,7 +8634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>6</v>
       </c>
@@ -8720,7 +8753,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>6</v>
       </c>
@@ -8839,7 +8872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>6</v>
       </c>
@@ -8958,7 +8991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>6</v>
       </c>
@@ -9077,7 +9110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>6</v>
       </c>
@@ -9196,7 +9229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>6</v>
       </c>
@@ -9315,7 +9348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>6</v>
       </c>
@@ -9434,7 +9467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>6</v>
       </c>
@@ -9553,7 +9586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>6</v>
       </c>
@@ -9672,7 +9705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>6</v>
       </c>
@@ -9791,7 +9824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>6</v>
       </c>
@@ -9910,7 +9943,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>6</v>
       </c>
@@ -10029,7 +10062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>6</v>
       </c>
@@ -10148,7 +10181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>6</v>
       </c>
@@ -10267,7 +10300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>6</v>
       </c>
@@ -10386,7 +10419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>6</v>
       </c>
@@ -10505,7 +10538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>6</v>
       </c>
@@ -10624,7 +10657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>6</v>
       </c>
@@ -10743,7 +10776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>6</v>
       </c>
@@ -10862,7 +10895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>6</v>
       </c>
@@ -10981,7 +11014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>6</v>
       </c>
@@ -11100,7 +11133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>6</v>
       </c>
@@ -11219,7 +11252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:39" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="92" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>6</v>
       </c>
@@ -11338,7 +11371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>7</v>
       </c>
@@ -11457,7 +11490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>7</v>
       </c>
@@ -11576,7 +11609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>7</v>
       </c>
@@ -11695,7 +11728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>7</v>
       </c>
@@ -11814,7 +11847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>7</v>
       </c>
@@ -11933,7 +11966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>7</v>
       </c>
@@ -12052,7 +12085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>7</v>
       </c>
@@ -12171,7 +12204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>7</v>
       </c>
@@ -12290,7 +12323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>7</v>
       </c>
@@ -12409,7 +12442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>7</v>
       </c>
@@ -12528,7 +12561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>7</v>
       </c>
@@ -12647,7 +12680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>7</v>
       </c>
@@ -12766,7 +12799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>7</v>
       </c>
@@ -12885,7 +12918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>7</v>
       </c>
@@ -13004,7 +13037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>7</v>
       </c>
@@ -13123,7 +13156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>7</v>
       </c>
@@ -13242,7 +13275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>7</v>
       </c>
@@ -13361,7 +13394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>7</v>
       </c>
@@ -13480,7 +13513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>7</v>
       </c>
@@ -13599,7 +13632,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="112" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>7</v>
       </c>
@@ -13718,7 +13751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>7</v>
       </c>
@@ -13837,7 +13870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>7</v>
       </c>
@@ -13956,7 +13989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>7</v>
       </c>
@@ -14075,7 +14108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>7</v>
       </c>
@@ -14194,7 +14227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>7</v>
       </c>
@@ -14313,7 +14346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>7</v>
       </c>
@@ -14432,7 +14465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>7</v>
       </c>
@@ -14551,7 +14584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>7</v>
       </c>
@@ -14670,7 +14703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>7</v>
       </c>
@@ -14789,7 +14822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:39" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="122" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
         <v>7</v>
       </c>
@@ -14908,7 +14941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>8</v>
       </c>
@@ -15027,7 +15060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>8</v>
       </c>
@@ -15146,7 +15179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>8</v>
       </c>
@@ -15265,7 +15298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>8</v>
       </c>
@@ -15384,7 +15417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>8</v>
       </c>
@@ -15503,7 +15536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>8</v>
       </c>
@@ -15622,7 +15655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>8</v>
       </c>
@@ -15741,7 +15774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>8</v>
       </c>
@@ -15860,7 +15893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>8</v>
       </c>
@@ -15979,7 +16012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>8</v>
       </c>
@@ -16098,7 +16131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>8</v>
       </c>
@@ -16217,7 +16250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>8</v>
       </c>
@@ -16336,7 +16369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>8</v>
       </c>
@@ -16455,7 +16488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>8</v>
       </c>
@@ -16574,7 +16607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>8</v>
       </c>
@@ -16693,7 +16726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>8</v>
       </c>
@@ -16812,7 +16845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>8</v>
       </c>
@@ -16931,7 +16964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>8</v>
       </c>
@@ -17050,7 +17083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>8</v>
       </c>
@@ -17169,7 +17202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>8</v>
       </c>
@@ -17288,7 +17321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>8</v>
       </c>
@@ -17407,7 +17440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>8</v>
       </c>
@@ -17526,7 +17559,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="145" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="145" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>8</v>
       </c>
@@ -17645,7 +17678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="146" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>8</v>
       </c>
@@ -17764,7 +17797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="147" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>8</v>
       </c>
@@ -17883,7 +17916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>8</v>
       </c>
@@ -18002,7 +18035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>8</v>
       </c>
@@ -18121,7 +18154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>8</v>
       </c>
@@ -18240,7 +18273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>8</v>
       </c>
@@ -18359,7 +18392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="152" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>8</v>
       </c>
@@ -18478,7 +18511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:39" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="153" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
         <v>8</v>
       </c>
@@ -18597,7 +18630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="154" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>9</v>
       </c>
@@ -18716,7 +18749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="155" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>9</v>
       </c>
@@ -18835,7 +18868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="156" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>9</v>
       </c>
@@ -18954,7 +18987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="157" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>9</v>
       </c>
@@ -19073,7 +19106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="158" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>9</v>
       </c>
@@ -19192,7 +19225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="159" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>9</v>
       </c>
@@ -19311,7 +19344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="160" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>9</v>
       </c>
@@ -19430,7 +19463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="161" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>9</v>
       </c>
@@ -19549,7 +19582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="162" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>9</v>
       </c>
@@ -19668,7 +19701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="163" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>9</v>
       </c>
@@ -19787,7 +19820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="164" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>9</v>
       </c>
@@ -19906,7 +19939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="165" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>9</v>
       </c>
@@ -20025,7 +20058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="166" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>9</v>
       </c>
@@ -20144,7 +20177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="167" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>9</v>
       </c>
@@ -20263,7 +20296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="168" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>9</v>
       </c>
@@ -20382,7 +20415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="169" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>9</v>
       </c>
@@ -20501,7 +20534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="170" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>9</v>
       </c>
@@ -20620,7 +20653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="171" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>9</v>
       </c>
@@ -20739,7 +20772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="172" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>9</v>
       </c>
@@ -20858,7 +20891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="173" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>9</v>
       </c>
@@ -20977,7 +21010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="174" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>9</v>
       </c>
@@ -21096,7 +21129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="175" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>9</v>
       </c>
@@ -21215,7 +21248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="176" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>9</v>
       </c>
@@ -21334,7 +21367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="177" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>9</v>
       </c>
@@ -21453,7 +21486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="178" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>9</v>
       </c>
@@ -21572,7 +21605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="179" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>9</v>
       </c>
@@ -21691,7 +21724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="180" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>9</v>
       </c>
@@ -21810,7 +21843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="181" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>9</v>
       </c>
@@ -21929,7 +21962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="182" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>9</v>
       </c>
@@ -22048,7 +22081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:39" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="183" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A183" s="2" t="s">
         <v>9</v>
       </c>
@@ -22167,7 +22200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="184" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>10</v>
       </c>
@@ -22286,7 +22319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="185" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>10</v>
       </c>
@@ -22405,7 +22438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="186" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>10</v>
       </c>
@@ -22524,7 +22557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="187" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
         <v>10</v>
       </c>
@@ -22643,7 +22676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="188" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
         <v>10</v>
       </c>
@@ -22762,7 +22795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="189" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
         <v>10</v>
       </c>
@@ -22881,7 +22914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="190" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
         <v>10</v>
       </c>
@@ -23000,7 +23033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="191" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>10</v>
       </c>
@@ -23119,7 +23152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="192" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>10</v>
       </c>
@@ -23238,7 +23271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="193" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>10</v>
       </c>
@@ -23357,7 +23390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="194" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
         <v>10</v>
       </c>
@@ -23476,7 +23509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="195" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
         <v>10</v>
       </c>
@@ -23595,7 +23628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="196" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
         <v>10</v>
       </c>
@@ -23714,7 +23747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="197" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
         <v>10</v>
       </c>
@@ -23833,7 +23866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="198" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
         <v>10</v>
       </c>
@@ -23952,7 +23985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="199" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
         <v>10</v>
       </c>
@@ -24071,7 +24104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="200" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
         <v>10</v>
       </c>
@@ -24190,7 +24223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="201" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
         <v>10</v>
       </c>
@@ -24309,7 +24342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="202" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
         <v>10</v>
       </c>
@@ -24428,7 +24461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="203" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
         <v>10</v>
       </c>
@@ -24547,7 +24580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="204" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
         <v>10</v>
       </c>
@@ -24666,7 +24699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="205" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
         <v>10</v>
       </c>
@@ -24785,7 +24818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="206" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
         <v>10</v>
       </c>
@@ -24904,7 +24937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="207" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
         <v>10</v>
       </c>
@@ -25023,7 +25056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="208" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
         <v>10</v>
       </c>
@@ -25142,7 +25175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="209" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
         <v>10</v>
       </c>
@@ -25261,7 +25294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="210" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
         <v>10</v>
       </c>
@@ -25380,7 +25413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="211" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
         <v>10</v>
       </c>
@@ -25499,7 +25532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="212" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
         <v>10</v>
       </c>
@@ -25618,7 +25651,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="213" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="213" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
         <v>10</v>
       </c>
@@ -25737,7 +25770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:39" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="214" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A214" s="2" t="s">
         <v>10</v>
       </c>
@@ -25856,7 +25889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="215" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
         <v>11</v>
       </c>
@@ -25975,7 +26008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="216" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
         <v>11</v>
       </c>
@@ -26094,7 +26127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="217" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
         <v>11</v>
       </c>
@@ -26213,7 +26246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="218" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
         <v>11</v>
       </c>
@@ -26332,7 +26365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="219" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
         <v>11</v>
       </c>
@@ -26451,7 +26484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="220" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
         <v>11</v>
       </c>
@@ -26570,7 +26603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="221" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
         <v>11</v>
       </c>
@@ -26689,7 +26722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="222" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
         <v>11</v>
       </c>
@@ -26808,7 +26841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="223" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
         <v>11</v>
       </c>
@@ -26927,7 +26960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="224" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
         <v>11</v>
       </c>
@@ -27046,7 +27079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="225" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
         <v>11</v>
       </c>
@@ -27165,7 +27198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="226" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
         <v>11</v>
       </c>
@@ -27284,7 +27317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="227" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
         <v>11</v>
       </c>
@@ -27403,7 +27436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="228" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
         <v>11</v>
       </c>
@@ -27522,7 +27555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="229" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
         <v>11</v>
       </c>
@@ -27641,7 +27674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="230" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
         <v>11</v>
       </c>
@@ -27760,7 +27793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="231" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
         <v>11</v>
       </c>
@@ -27879,7 +27912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="232" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
         <v>11</v>
       </c>
@@ -27998,7 +28031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="233" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
         <v>11</v>
       </c>
@@ -28117,7 +28150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="234" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
         <v>11</v>
       </c>
@@ -28236,7 +28269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="235" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
         <v>11</v>
       </c>
@@ -28355,7 +28388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="236" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
         <v>11</v>
       </c>
@@ -28474,7 +28507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="237" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
         <v>11</v>
       </c>
@@ -28593,7 +28626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="238" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
         <v>11</v>
       </c>
@@ -28712,7 +28745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="239" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
         <v>11</v>
       </c>
@@ -28831,7 +28864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="240" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
         <v>11</v>
       </c>
@@ -28950,7 +28983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="241" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
         <v>11</v>
       </c>
@@ -29069,7 +29102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="242" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
         <v>11</v>
       </c>
@@ -29188,7 +29221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="243" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
         <v>11</v>
       </c>
@@ -29307,7 +29340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="244" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
         <v>11</v>
       </c>
@@ -29426,7 +29459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:39" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="245" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A245" s="2" t="s">
         <v>11</v>
       </c>
@@ -29545,7 +29578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="246" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
         <v>12</v>
       </c>
@@ -29664,7 +29697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="247" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
         <v>12</v>
       </c>
@@ -29783,7 +29816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="248" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
         <v>12</v>
       </c>
@@ -29902,7 +29935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="249" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
         <v>12</v>
       </c>
@@ -30021,7 +30054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="250" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
         <v>12</v>
       </c>
@@ -30140,7 +30173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="251" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
         <v>12</v>
       </c>
@@ -30259,7 +30292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="252" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
         <v>12</v>
       </c>
@@ -30378,7 +30411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="253" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
         <v>12</v>
       </c>
@@ -30497,7 +30530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="254" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
         <v>12</v>
       </c>
@@ -30616,7 +30649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="255" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
         <v>12</v>
       </c>
@@ -30735,7 +30768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="256" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
         <v>12</v>
       </c>
@@ -30854,7 +30887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="257" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
         <v>12</v>
       </c>
@@ -30973,7 +31006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="258" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
         <v>12</v>
       </c>
@@ -31092,7 +31125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="259" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
         <v>12</v>
       </c>
@@ -31211,7 +31244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="260" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
         <v>12</v>
       </c>
@@ -31330,7 +31363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="261" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
         <v>12</v>
       </c>
@@ -31449,7 +31482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="262" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
         <v>12</v>
       </c>
@@ -31568,7 +31601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="263" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
         <v>12</v>
       </c>
@@ -31687,7 +31720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="264" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
         <v>12</v>
       </c>
@@ -31806,7 +31839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="265" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
         <v>12</v>
       </c>
@@ -31925,7 +31958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="266" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
         <v>12</v>
       </c>
@@ -32044,7 +32077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="267" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
         <v>12</v>
       </c>
@@ -32163,7 +32196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="268" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
         <v>12</v>
       </c>
@@ -32282,7 +32315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="269" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
         <v>12</v>
       </c>
@@ -32401,7 +32434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="270" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
         <v>12</v>
       </c>
@@ -32520,7 +32553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="271" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
         <v>12</v>
       </c>
@@ -32639,7 +32672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="272" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
         <v>12</v>
       </c>
@@ -32758,7 +32791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="273" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
         <v>12</v>
       </c>
@@ -32877,7 +32910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="274" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
         <v>12</v>
       </c>
@@ -32996,7 +33029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:39" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="275" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A275" s="2" t="s">
         <v>12</v>
       </c>
@@ -33115,7 +33148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="276" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
         <v>13</v>
       </c>
@@ -33234,7 +33267,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="277" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="277" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
         <v>13</v>
       </c>
@@ -33353,7 +33386,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="278" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="278" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
         <v>13</v>
       </c>
@@ -33472,7 +33505,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="279" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="279" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
         <v>13</v>
       </c>
@@ -33591,7 +33624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="280" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
         <v>13</v>
       </c>
@@ -33710,7 +33743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="281" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
         <v>13</v>
       </c>
@@ -33829,7 +33862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="282" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
         <v>13</v>
       </c>
@@ -33948,7 +33981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="283" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
         <v>13</v>
       </c>
@@ -34067,7 +34100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="284" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
         <v>13</v>
       </c>
@@ -34186,7 +34219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="285" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
         <v>13</v>
       </c>
@@ -34305,7 +34338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="286" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
         <v>13</v>
       </c>
@@ -34424,7 +34457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="287" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
         <v>13</v>
       </c>
@@ -34543,7 +34576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="288" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
         <v>13</v>
       </c>
@@ -34662,7 +34695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="289" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
         <v>13</v>
       </c>
@@ -34781,7 +34814,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="290" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="290" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
         <v>13</v>
       </c>
@@ -34900,7 +34933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="291" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
         <v>13</v>
       </c>
@@ -35019,7 +35052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="292" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
         <v>13</v>
       </c>
@@ -35138,7 +35171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="293" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
         <v>13</v>
       </c>
@@ -35257,7 +35290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="294" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
         <v>13</v>
       </c>
@@ -35376,7 +35409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="295" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
         <v>13</v>
       </c>
@@ -35495,7 +35528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="296" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
         <v>13</v>
       </c>
@@ -35614,7 +35647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="297" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
         <v>13</v>
       </c>
@@ -35733,7 +35766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="298" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
         <v>13</v>
       </c>
@@ -35852,7 +35885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="299" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
         <v>13</v>
       </c>
@@ -35971,7 +36004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="300" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
         <v>13</v>
       </c>
@@ -36090,7 +36123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="301" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
         <v>13</v>
       </c>
@@ -36209,7 +36242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="302" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
         <v>13</v>
       </c>
@@ -36328,7 +36361,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="303" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="303" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
         <v>13</v>
       </c>
@@ -36447,7 +36480,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="304" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="304" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
         <v>13</v>
       </c>
@@ -36566,7 +36599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="305" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
         <v>13</v>
       </c>
@@ -36685,7 +36718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:39" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="306" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A306" s="2" t="s">
         <v>13</v>
       </c>
@@ -36804,7 +36837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="307" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
         <v>14</v>
       </c>
@@ -36923,7 +36956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="308" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
         <v>14</v>
       </c>
@@ -37042,7 +37075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="309" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
         <v>14</v>
       </c>
@@ -37161,7 +37194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="310" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
         <v>14</v>
       </c>
@@ -37280,7 +37313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="311" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="311" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
         <v>14</v>
       </c>
@@ -37399,7 +37432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="312" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A312" s="1" t="s">
         <v>14</v>
       </c>
@@ -37518,7 +37551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="313" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
         <v>14</v>
       </c>
@@ -37637,7 +37670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="314" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
         <v>14</v>
       </c>
@@ -37756,7 +37789,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="315" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="315" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A315" s="1" t="s">
         <v>14</v>
       </c>
@@ -37875,7 +37908,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="316" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="316" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
         <v>14</v>
       </c>
@@ -37994,7 +38027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="317" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
         <v>14</v>
       </c>
@@ -38113,7 +38146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="318" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A318" s="1" t="s">
         <v>14</v>
       </c>
@@ -38232,7 +38265,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="319" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="319" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A319" s="1" t="s">
         <v>14</v>
       </c>
@@ -38351,7 +38384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="320" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
         <v>14</v>
       </c>
@@ -38470,7 +38503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="321" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A321" s="1" t="s">
         <v>14</v>
       </c>
@@ -38589,7 +38622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="322" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
         <v>14</v>
       </c>
@@ -38708,7 +38741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="323" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A323" s="1" t="s">
         <v>14</v>
       </c>
@@ -38827,7 +38860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="324" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A324" s="1" t="s">
         <v>14</v>
       </c>
@@ -38946,7 +38979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="325" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A325" s="1" t="s">
         <v>14</v>
       </c>
@@ -39065,7 +39098,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="326" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="326" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A326" s="1" t="s">
         <v>14</v>
       </c>
@@ -39184,7 +39217,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="327" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="327" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A327" s="1" t="s">
         <v>14</v>
       </c>
@@ -39303,7 +39336,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="328" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="328" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A328" s="1" t="s">
         <v>14</v>
       </c>
@@ -39422,7 +39455,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="329" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="329" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A329" s="1" t="s">
         <v>14</v>
       </c>
@@ -39541,7 +39574,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="330" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="330" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A330" s="1" t="s">
         <v>14</v>
       </c>
@@ -39660,7 +39693,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="331" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="331" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A331" s="1" t="s">
         <v>14</v>
       </c>
@@ -39779,7 +39812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="332" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A332" s="1" t="s">
         <v>14</v>
       </c>
@@ -39898,7 +39931,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="333" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="333" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A333" s="1" t="s">
         <v>14</v>
       </c>
@@ -40017,7 +40050,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="334" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="334" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A334" s="1" t="s">
         <v>14</v>
       </c>
@@ -40136,7 +40169,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="335" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="335" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
         <v>14</v>
       </c>
@@ -40255,7 +40288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:39" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="336" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A336" s="2" t="s">
         <v>14</v>
       </c>
@@ -40374,7 +40407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="337" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A337" s="1" t="s">
         <v>15</v>
       </c>
@@ -40493,7 +40526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="338" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A338" s="1" t="s">
         <v>15</v>
       </c>
@@ -40612,7 +40645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="339" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A339" s="1" t="s">
         <v>15</v>
       </c>
@@ -40731,7 +40764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="340" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A340" s="1" t="s">
         <v>15</v>
       </c>
@@ -40850,7 +40883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="341" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="341" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A341" s="1" t="s">
         <v>15</v>
       </c>
@@ -40969,7 +41002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="342" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A342" s="1" t="s">
         <v>15</v>
       </c>
@@ -41088,7 +41121,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="343" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="343" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A343" s="1" t="s">
         <v>15</v>
       </c>
@@ -41207,7 +41240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="344" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="344" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A344" s="1" t="s">
         <v>15</v>
       </c>
@@ -41326,7 +41359,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="345" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="345" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A345" s="1" t="s">
         <v>15</v>
       </c>
@@ -41445,7 +41478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="346" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A346" s="1" t="s">
         <v>15</v>
       </c>
@@ -41564,7 +41597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="347" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A347" s="1" t="s">
         <v>15</v>
       </c>
@@ -41683,7 +41716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="348" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A348" s="1" t="s">
         <v>15</v>
       </c>
@@ -41802,7 +41835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="349" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A349" s="1" t="s">
         <v>15</v>
       </c>
@@ -41921,7 +41954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="350" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A350" s="1" t="s">
         <v>15</v>
       </c>
@@ -42040,7 +42073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="351" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A351" s="1" t="s">
         <v>15</v>
       </c>
@@ -42159,7 +42192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="352" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A352" s="1" t="s">
         <v>15</v>
       </c>
@@ -42278,7 +42311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="353" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="353" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A353" s="1" t="s">
         <v>15</v>
       </c>
@@ -42397,7 +42430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="354" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A354" s="1" t="s">
         <v>15</v>
       </c>
@@ -42516,7 +42549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="355" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A355" s="1" t="s">
         <v>15</v>
       </c>
@@ -42635,7 +42668,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="356" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="356" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A356" s="1" t="s">
         <v>15</v>
       </c>
@@ -42754,7 +42787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="357" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A357" s="1" t="s">
         <v>15</v>
       </c>
@@ -42873,7 +42906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="358" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A358" s="1" t="s">
         <v>15</v>
       </c>
@@ -42992,7 +43025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="359" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="359" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A359" s="1" t="s">
         <v>15</v>
       </c>
@@ -43111,7 +43144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="360" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="360" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A360" s="1" t="s">
         <v>15</v>
       </c>
@@ -43230,7 +43263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="361" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="361" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A361" s="1" t="s">
         <v>15</v>
       </c>
@@ -43349,7 +43382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="362" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A362" s="1" t="s">
         <v>15</v>
       </c>
@@ -43468,7 +43501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="363" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A363" s="1" t="s">
         <v>15</v>
       </c>
@@ -43587,7 +43620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="364" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A364" s="1" t="s">
         <v>15</v>
       </c>
@@ -43706,7 +43739,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="365" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="365" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A365" s="1" t="s">
         <v>15</v>
       </c>
@@ -43825,7 +43858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="366" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A366" s="1" t="s">
         <v>15</v>
       </c>
@@ -43944,7 +43977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:39" x14ac:dyDescent="0.55000000000000004">
+    <row r="367" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A367" s="1" t="s">
         <v>15</v>
       </c>
@@ -44065,5 +44098,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>